--- a/Chipman Image Analysis.xlsx
+++ b/Chipman Image Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>Continuous 180 degree</t>
   </si>
@@ -109,292 +109,319 @@
     <t>papentine vertical</t>
   </si>
   <si>
+    <t>p8.png</t>
+  </si>
+  <si>
+    <t>p5.png</t>
+  </si>
+  <si>
+    <t>p6.png</t>
+  </si>
+  <si>
+    <t>p3.png</t>
+  </si>
+  <si>
     <t>p1.png</t>
   </si>
   <si>
+    <t>p9.png</t>
+  </si>
+  <si>
+    <t>p7.png</t>
+  </si>
+  <si>
+    <t>p4.png</t>
+  </si>
+  <si>
     <t>p2.png</t>
   </si>
   <si>
-    <t>p3.png</t>
-  </si>
-  <si>
-    <t>p4.png</t>
-  </si>
-  <si>
-    <t>p5.png</t>
-  </si>
-  <si>
-    <t>p6.png</t>
-  </si>
-  <si>
-    <t>p7.png</t>
-  </si>
-  <si>
-    <t>p8.png</t>
-  </si>
-  <si>
-    <t>p9.png</t>
+    <t>p27.png</t>
+  </si>
+  <si>
+    <t>p24.png</t>
+  </si>
+  <si>
+    <t>p21.png</t>
+  </si>
+  <si>
+    <t>p19.png</t>
+  </si>
+  <si>
+    <t>p16.png</t>
+  </si>
+  <si>
+    <t>p13.png</t>
   </si>
   <si>
     <t>p10.png</t>
   </si>
   <si>
+    <t>p37.png</t>
+  </si>
+  <si>
+    <t>p34.png</t>
+  </si>
+  <si>
+    <t>p31.png</t>
+  </si>
+  <si>
+    <t>p29.png</t>
+  </si>
+  <si>
+    <t>p26.png</t>
+  </si>
+  <si>
+    <t>p23.png</t>
+  </si>
+  <si>
+    <t>p20.png</t>
+  </si>
+  <si>
+    <t>p18.png</t>
+  </si>
+  <si>
+    <t>p15.png</t>
+  </si>
+  <si>
+    <t>p12.png</t>
+  </si>
+  <si>
+    <t>p44.png</t>
+  </si>
+  <si>
+    <t>p41.png</t>
+  </si>
+  <si>
+    <t>p39.png</t>
+  </si>
+  <si>
+    <t>p36.png</t>
+  </si>
+  <si>
+    <t>p33.png</t>
+  </si>
+  <si>
+    <t>p30.png</t>
+  </si>
+  <si>
+    <t>p28.png</t>
+  </si>
+  <si>
+    <t>p25.png</t>
+  </si>
+  <si>
+    <t>p22.png</t>
+  </si>
+  <si>
+    <t>p43.png</t>
+  </si>
+  <si>
+    <t>p40.png</t>
+  </si>
+  <si>
+    <t>p38.png</t>
+  </si>
+  <si>
+    <t>p35.png</t>
+  </si>
+  <si>
+    <t>p32.png</t>
+  </si>
+  <si>
+    <t>p45.png</t>
+  </si>
+  <si>
+    <t>p42.png</t>
+  </si>
+  <si>
+    <t>p17.png</t>
+  </si>
+  <si>
+    <t>p14.png</t>
+  </si>
+  <si>
     <t>p11.png</t>
   </si>
   <si>
-    <t>p12.png</t>
-  </si>
-  <si>
-    <t>p13.png</t>
-  </si>
-  <si>
-    <t>p14.png</t>
-  </si>
-  <si>
-    <t>p15.png</t>
-  </si>
-  <si>
-    <t>p16.png</t>
-  </si>
-  <si>
-    <t>p17.png</t>
-  </si>
-  <si>
-    <t>p18.png</t>
-  </si>
-  <si>
-    <t>p19.png</t>
-  </si>
-  <si>
-    <t>p20.png</t>
-  </si>
-  <si>
-    <t>p21.png</t>
-  </si>
-  <si>
-    <t>p22.png</t>
-  </si>
-  <si>
-    <t>p23.png</t>
-  </si>
-  <si>
-    <t>p24.png</t>
-  </si>
-  <si>
-    <t>p25.png</t>
-  </si>
-  <si>
-    <t>p26.png</t>
-  </si>
-  <si>
-    <t>p27.png</t>
-  </si>
-  <si>
-    <t>p28.png</t>
-  </si>
-  <si>
-    <t>p29.png</t>
-  </si>
-  <si>
-    <t>p30.png</t>
-  </si>
-  <si>
-    <t>p31.png</t>
-  </si>
-  <si>
-    <t>p32.png</t>
-  </si>
-  <si>
-    <t>p33.png</t>
-  </si>
-  <si>
-    <t>p34.png</t>
-  </si>
-  <si>
-    <t>p35.png</t>
-  </si>
-  <si>
-    <t>p36.png</t>
-  </si>
-  <si>
-    <t>p37.png</t>
-  </si>
-  <si>
-    <t>p38.png</t>
-  </si>
-  <si>
-    <t>p39.png</t>
-  </si>
-  <si>
-    <t>p40.png</t>
-  </si>
-  <si>
-    <t>p41.png</t>
-  </si>
-  <si>
-    <t>p42.png</t>
-  </si>
-  <si>
-    <t>p43.png</t>
-  </si>
-  <si>
-    <t>p44.png</t>
-  </si>
-  <si>
-    <t>p45.png</t>
-  </si>
-  <si>
     <t>Spearman rho</t>
   </si>
   <si>
     <t>Spearman p value</t>
   </si>
   <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>-0.278</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>-0.178</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>-0.184</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>-0.438</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>-0.393</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>-0.288</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>-0.379</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.519</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.533</t>
-  </si>
-  <si>
-    <t>-0.584</t>
-  </si>
-  <si>
-    <t>-0.831</t>
-  </si>
-  <si>
-    <t>-0.873</t>
-  </si>
-  <si>
-    <t>-0.727</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.987</t>
-  </si>
-  <si>
-    <t>-0.086</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>-0.69</t>
-  </si>
-  <si>
-    <t>-0.807</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>-0.036</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>-0.075</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>0.631</t>
+    <t>-0.109</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>-0.198</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>-0.196</t>
+  </si>
+  <si>
+    <t>0.198</t>
+  </si>
+  <si>
+    <t>-0.114</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>-0.057</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>-0.029</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>-0.138</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>-0.117</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>-0.095</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>-0.094</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>-0.038</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>-0.013</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>-0.016</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>-0.089</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>-0.104</t>
+  </si>
+  <si>
+    <t>0.498</t>
   </si>
 </sst>
 </file>
@@ -832,97 +859,97 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="C2">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="D2">
-        <v>976</v>
+        <v>1220</v>
       </c>
       <c r="E2">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="F2">
         <v>412</v>
       </c>
       <c r="G2">
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="H2">
-        <v>1486</v>
+        <v>1744</v>
       </c>
       <c r="I2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="J2">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="K2">
-        <v>752</v>
+        <v>920</v>
       </c>
       <c r="L2">
-        <v>2462</v>
+        <v>2964</v>
       </c>
       <c r="M2">
-        <v>322</v>
+        <v>412</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="Q2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R2">
+        <v>21</v>
+      </c>
+      <c r="S2">
+        <v>42</v>
+      </c>
+      <c r="T2">
+        <v>112</v>
+      </c>
+      <c r="U2">
         <v>35</v>
       </c>
-      <c r="S2">
-        <v>64</v>
-      </c>
-      <c r="T2">
-        <v>120</v>
-      </c>
-      <c r="U2">
-        <v>31</v>
-      </c>
       <c r="V2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W2">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="X2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="Y2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z2">
-        <v>14.04372371212676</v>
+        <v>18.5666024574071</v>
       </c>
       <c r="AA2">
-        <v>29.41699625065135</v>
+        <v>37.1332049148142</v>
       </c>
       <c r="AB2">
-        <v>19.96993749796584</v>
+        <v>19.3167249841905</v>
       </c>
       <c r="AC2">
-        <v>38.68460249082838</v>
+        <v>38.633449968381</v>
       </c>
       <c r="AD2">
-        <v>18.71466499286254</v>
+        <v>19.3167249841905</v>
       </c>
       <c r="AE2">
-        <v>68.10159874147973</v>
+        <v>75.7666548831952</v>
       </c>
       <c r="AF2">
-        <v>15.37327253852459</v>
+        <v>18.5666024574071</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -930,97 +957,97 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="C3">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D3">
-        <v>984</v>
+        <v>862</v>
       </c>
       <c r="E3">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F3">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="G3">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="H3">
-        <v>1498</v>
+        <v>1348</v>
       </c>
       <c r="I3">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="J3">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="K3">
-        <v>908</v>
+        <v>742</v>
       </c>
       <c r="L3">
-        <v>2482</v>
+        <v>2210</v>
       </c>
       <c r="M3">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="N3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S3">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="U3">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="V3">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="W3">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="X3">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y3">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Z3">
-        <v>29.33445375115093</v>
+        <v>23.41363499719856</v>
       </c>
       <c r="AA3">
-        <v>56.89075625191822</v>
+        <v>46.60542124478076</v>
       </c>
       <c r="AB3">
-        <v>16.06145247908719</v>
+        <v>23.45939248775923</v>
       </c>
       <c r="AC3">
-        <v>32.80414619554998</v>
+        <v>45.42393495383837</v>
       </c>
       <c r="AD3">
-        <v>16.74269371646278</v>
+        <v>21.96454246607914</v>
       </c>
       <c r="AE3">
-        <v>89.69490244746819</v>
+        <v>92.02935619861913</v>
       </c>
       <c r="AF3">
-        <v>27.55630250076729</v>
+        <v>23.1917862475822</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1028,97 +1055,97 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C4">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="D4">
-        <v>858</v>
+        <v>930</v>
       </c>
       <c r="E4">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="F4">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="G4">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="H4">
-        <v>1334</v>
+        <v>1424</v>
       </c>
       <c r="I4">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="J4">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="K4">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="L4">
-        <v>2192</v>
+        <v>2354</v>
       </c>
       <c r="M4">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P4">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="S4">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="T4">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="U4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W4">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="X4">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Z4">
-        <v>24.36248247475118</v>
+        <v>17.83960372947084</v>
       </c>
       <c r="AA4">
-        <v>50.72496494950235</v>
+        <v>38.17405748062177</v>
       </c>
       <c r="AB4">
-        <v>25.18639121569549</v>
+        <v>22.36248247475118</v>
       </c>
       <c r="AC4">
-        <v>45.94681369911871</v>
+        <v>45.95220873100541</v>
       </c>
       <c r="AD4">
-        <v>20.76042248342321</v>
+        <v>23.58972625625424</v>
       </c>
       <c r="AE4">
-        <v>96.67177864862106</v>
+        <v>84.12626621162718</v>
       </c>
       <c r="AF4">
-        <v>26.36248247475118</v>
+        <v>20.33445375115093</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1126,97 +1153,97 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="C5">
-        <v>406</v>
+        <v>276</v>
       </c>
       <c r="D5">
-        <v>1156</v>
+        <v>858</v>
       </c>
       <c r="E5">
-        <v>406</v>
+        <v>276</v>
       </c>
       <c r="F5">
-        <v>420</v>
+        <v>312</v>
       </c>
       <c r="G5">
-        <v>842</v>
+        <v>588</v>
       </c>
       <c r="H5">
-        <v>1674</v>
+        <v>1334</v>
       </c>
       <c r="I5">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="J5">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="K5">
-        <v>832</v>
+        <v>746</v>
       </c>
       <c r="L5">
-        <v>2830</v>
+        <v>2192</v>
       </c>
       <c r="M5">
-        <v>422</v>
+        <v>276</v>
       </c>
       <c r="N5">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="O5">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="T5">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="U5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="V5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="W5">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="X5">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="Y5">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <v>16.17609125905568</v>
+        <v>24.36248247475118</v>
       </c>
       <c r="AA5">
-        <v>31.65321251377534</v>
+        <v>50.72496494950235</v>
       </c>
       <c r="AB5">
-        <v>21.66351247041516</v>
+        <v>25.18639121569549</v>
       </c>
       <c r="AC5">
-        <v>42.42393495383837</v>
+        <v>45.94681369911871</v>
       </c>
       <c r="AD5">
         <v>20.76042248342321</v>
       </c>
       <c r="AE5">
-        <v>74.07714746761371</v>
+        <v>96.67177864862106</v>
       </c>
       <c r="AF5">
-        <v>15.47712125471966</v>
+        <v>26.36248247475118</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1224,97 +1251,97 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C6">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="D6">
-        <v>862</v>
+        <v>976</v>
       </c>
       <c r="E6">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="F6">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="G6">
-        <v>606</v>
+        <v>734</v>
       </c>
       <c r="H6">
-        <v>1348</v>
+        <v>1486</v>
       </c>
       <c r="I6">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="J6">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="K6">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="L6">
-        <v>2210</v>
+        <v>2462</v>
       </c>
       <c r="M6">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="P6">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="R6">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="S6">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="T6">
+        <v>120</v>
+      </c>
+      <c r="U6">
+        <v>31</v>
+      </c>
+      <c r="V6">
+        <v>25</v>
+      </c>
+      <c r="W6">
         <v>56</v>
       </c>
-      <c r="U6">
-        <v>18</v>
-      </c>
-      <c r="V6">
-        <v>18</v>
-      </c>
-      <c r="W6">
-        <v>36</v>
-      </c>
       <c r="X6">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Z6">
-        <v>23.41363499719856</v>
+        <v>14.04372371212676</v>
       </c>
       <c r="AA6">
-        <v>46.60542124478076</v>
+        <v>29.41699625065135</v>
       </c>
       <c r="AB6">
-        <v>23.45939248775923</v>
+        <v>19.96993749796584</v>
       </c>
       <c r="AC6">
-        <v>45.42393495383837</v>
+        <v>38.68460249082838</v>
       </c>
       <c r="AD6">
-        <v>21.96454246607914</v>
+        <v>18.71466499286254</v>
       </c>
       <c r="AE6">
-        <v>92.02935619861913</v>
+        <v>68.10159874147973</v>
       </c>
       <c r="AF6">
-        <v>23.1917862475822</v>
+        <v>15.37327253852459</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1322,97 +1349,97 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C7">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D7">
-        <v>930</v>
+        <v>860</v>
       </c>
       <c r="E7">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="F7">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="G7">
-        <v>662</v>
+        <v>792</v>
       </c>
       <c r="H7">
-        <v>1424</v>
+        <v>1384</v>
       </c>
       <c r="I7">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="J7">
-        <v>418</v>
+        <v>296</v>
       </c>
       <c r="K7">
-        <v>762</v>
+        <v>592</v>
       </c>
       <c r="L7">
-        <v>2354</v>
+        <v>2244</v>
       </c>
       <c r="M7">
-        <v>328</v>
+        <v>524</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>17</v>
       </c>
       <c r="S7">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="T7">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="U7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Y7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="Z7">
-        <v>17.83960372947084</v>
+        <v>31.80617997398389</v>
       </c>
       <c r="AA7">
-        <v>38.17405748062177</v>
+        <v>42.47508747628575</v>
       </c>
       <c r="AB7">
-        <v>22.36248247475118</v>
+        <v>30.50514997831991</v>
       </c>
       <c r="AC7">
-        <v>45.95220873100541</v>
+        <v>61.01029995663981</v>
       </c>
       <c r="AD7">
-        <v>23.58972625625424</v>
+        <v>30.50514997831991</v>
       </c>
       <c r="AE7">
-        <v>84.12626621162718</v>
+        <v>103.4853874329256</v>
       </c>
       <c r="AF7">
-        <v>20.33445375115093</v>
+        <v>10.66890750230186</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1518,97 +1545,97 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="C9">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D9">
-        <v>1220</v>
+        <v>1156</v>
       </c>
       <c r="E9">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F9">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G9">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="H9">
-        <v>1744</v>
+        <v>1674</v>
       </c>
       <c r="I9">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="J9">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="K9">
-        <v>920</v>
+        <v>832</v>
       </c>
       <c r="L9">
-        <v>2964</v>
+        <v>2830</v>
       </c>
       <c r="M9">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="N9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="S9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="T9">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="U9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W9">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="X9">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Y9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Z9">
-        <v>18.5666024574071</v>
+        <v>16.17609125905568</v>
       </c>
       <c r="AA9">
-        <v>37.1332049148142</v>
+        <v>31.65321251377534</v>
       </c>
       <c r="AB9">
-        <v>19.3167249841905</v>
+        <v>21.66351247041516</v>
       </c>
       <c r="AC9">
-        <v>38.633449968381</v>
+        <v>42.42393495383837</v>
       </c>
       <c r="AD9">
-        <v>19.3167249841905</v>
+        <v>20.76042248342321</v>
       </c>
       <c r="AE9">
-        <v>75.7666548831952</v>
+        <v>74.07714746761371</v>
       </c>
       <c r="AF9">
-        <v>18.5666024574071</v>
+        <v>15.47712125471966</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1616,97 +1643,97 @@
         <v>39</v>
       </c>
       <c r="B10">
-        <v>268</v>
+        <v>412</v>
       </c>
       <c r="C10">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D10">
-        <v>860</v>
+        <v>984</v>
       </c>
       <c r="E10">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F10">
         <v>268</v>
       </c>
       <c r="G10">
-        <v>792</v>
+        <v>590</v>
       </c>
       <c r="H10">
-        <v>1384</v>
+        <v>1498</v>
       </c>
       <c r="I10">
-        <v>296</v>
+        <v>452</v>
       </c>
       <c r="J10">
-        <v>296</v>
+        <v>456</v>
       </c>
       <c r="K10">
-        <v>592</v>
+        <v>908</v>
       </c>
       <c r="L10">
-        <v>2244</v>
+        <v>2482</v>
       </c>
       <c r="M10">
-        <v>524</v>
+        <v>322</v>
       </c>
       <c r="N10">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P10">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S10">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="T10">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="X10">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="Y10">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="Z10">
-        <v>31.80617997398389</v>
+        <v>29.33445375115093</v>
       </c>
       <c r="AA10">
-        <v>42.47508747628575</v>
+        <v>56.89075625191822</v>
       </c>
       <c r="AB10">
-        <v>30.50514997831991</v>
+        <v>16.06145247908719</v>
       </c>
       <c r="AC10">
-        <v>61.01029995663981</v>
+        <v>32.80414619554998</v>
       </c>
       <c r="AD10">
-        <v>30.50514997831991</v>
+        <v>16.74269371646278</v>
       </c>
       <c r="AE10">
-        <v>103.4853874329256</v>
+        <v>89.69490244746819</v>
       </c>
       <c r="AF10">
-        <v>10.66890750230186</v>
+        <v>27.55630250076729</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1714,97 +1741,97 @@
         <v>40</v>
       </c>
       <c r="B11">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C11">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D11">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c r="E11">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="F11">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="G11">
-        <v>544</v>
+        <v>652</v>
       </c>
       <c r="H11">
         <v>1376</v>
       </c>
       <c r="I11">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="J11">
-        <v>444</v>
+        <v>366</v>
       </c>
       <c r="K11">
-        <v>832</v>
+        <v>724</v>
       </c>
       <c r="L11">
-        <v>2236</v>
+        <v>2284</v>
       </c>
       <c r="M11">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>27</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>13</v>
+      </c>
+      <c r="S11">
+        <v>29</v>
+      </c>
+      <c r="T11">
+        <v>63</v>
+      </c>
+      <c r="U11">
+        <v>15</v>
+      </c>
+      <c r="V11">
         <v>19</v>
       </c>
-      <c r="O11">
-        <v>13</v>
-      </c>
-      <c r="P11">
-        <v>45</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
-      </c>
-      <c r="R11">
-        <v>17</v>
-      </c>
-      <c r="S11">
+      <c r="W11">
         <v>34</v>
       </c>
-      <c r="T11">
-        <v>92</v>
-      </c>
-      <c r="U11">
-        <v>25</v>
-      </c>
-      <c r="V11">
-        <v>33</v>
-      </c>
-      <c r="W11">
-        <v>58</v>
-      </c>
       <c r="X11">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="Y11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z11">
-        <v>19.41853992195166</v>
+        <v>25.11260500153458</v>
       </c>
       <c r="AA11">
-        <v>38.83707984390333</v>
+        <v>45.55426872233338</v>
       </c>
       <c r="AB11">
-        <v>20.53857373380686</v>
+        <v>22.66351247041516</v>
       </c>
       <c r="AC11">
-        <v>43.45196367743861</v>
+        <v>47.02599494516633</v>
       </c>
       <c r="AD11">
-        <v>22.91338994363176</v>
+        <v>24.36248247475118</v>
       </c>
       <c r="AE11">
-        <v>82.28904352134194</v>
+        <v>92.58026366749971</v>
       </c>
       <c r="AF11">
-        <v>19.41853992195166</v>
+        <v>20.4416637207988</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1812,97 +1839,97 @@
         <v>41</v>
       </c>
       <c r="B12">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="C12">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="D12">
-        <v>948</v>
+        <v>900</v>
       </c>
       <c r="E12">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="F12">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="G12">
-        <v>696</v>
+        <v>634</v>
       </c>
       <c r="H12">
-        <v>1472</v>
+        <v>1362</v>
       </c>
       <c r="I12">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="J12">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K12">
-        <v>776</v>
+        <v>728</v>
       </c>
       <c r="L12">
-        <v>2420</v>
+        <v>2262</v>
       </c>
       <c r="M12">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>24</v>
+      </c>
+      <c r="T12">
+        <v>60</v>
+      </c>
+      <c r="U12">
+        <v>16</v>
+      </c>
+      <c r="V12">
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <v>36</v>
+      </c>
+      <c r="X12">
+        <v>85</v>
+      </c>
+      <c r="Y12">
         <v>11</v>
       </c>
-      <c r="O12">
-        <v>11</v>
-      </c>
-      <c r="P12">
-        <v>33</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>15</v>
-      </c>
-      <c r="S12">
-        <v>30</v>
-      </c>
-      <c r="T12">
-        <v>80</v>
-      </c>
-      <c r="U12">
-        <v>25</v>
-      </c>
-      <c r="V12">
-        <v>25</v>
-      </c>
-      <c r="W12">
-        <v>50</v>
-      </c>
-      <c r="X12">
-        <v>113</v>
-      </c>
-      <c r="Y12">
-        <v>15</v>
-      </c>
       <c r="Z12">
-        <v>18.5666024574071</v>
+        <v>22.01569498852652</v>
       </c>
       <c r="AA12">
-        <v>37.1332049148142</v>
+        <v>44.20208620422201</v>
       </c>
       <c r="AB12">
-        <v>23.01569498852652</v>
+        <v>22.70926996097583</v>
       </c>
       <c r="AC12">
-        <v>46.03138997705304</v>
+        <v>46.37278243139099</v>
       </c>
       <c r="AD12">
-        <v>23.01569498852652</v>
+        <v>23.66351247041516</v>
       </c>
       <c r="AE12">
-        <v>83.16459489186724</v>
+        <v>90.574868635613</v>
       </c>
       <c r="AF12">
-        <v>18.5666024574071</v>
+        <v>22.18639121569549</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1910,49 +1937,49 @@
         <v>42</v>
       </c>
       <c r="B13">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D13">
-        <v>948</v>
+        <v>904</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G13">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="H13">
-        <v>1472</v>
+        <v>1342</v>
       </c>
       <c r="I13">
-        <v>436</v>
+        <v>352</v>
       </c>
       <c r="J13">
-        <v>436</v>
+        <v>344</v>
       </c>
       <c r="K13">
-        <v>872</v>
+        <v>696</v>
       </c>
       <c r="L13">
-        <v>2420</v>
+        <v>2246</v>
       </c>
       <c r="M13">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N13">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>7</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -1961,46 +1988,46 @@
         <v>11</v>
       </c>
       <c r="S13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T13">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="U13">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="V13">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W13">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="X13">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="Y13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z13">
-        <v>25.61235994796778</v>
+        <v>24.45939248775923</v>
       </c>
       <c r="AA13">
-        <v>51.22471989593555</v>
+        <v>44.04911874401347</v>
       </c>
       <c r="AB13">
-        <v>20.85733249643127</v>
+        <v>25.11260500153458</v>
       </c>
       <c r="AC13">
-        <v>41.71466499286254</v>
+        <v>48.44705875268551</v>
       </c>
       <c r="AD13">
-        <v>20.85733249643127</v>
+        <v>23.33445375115093</v>
       </c>
       <c r="AE13">
-        <v>92.93938488879809</v>
+        <v>92.49617749669898</v>
       </c>
       <c r="AF13">
-        <v>25.61235994796778</v>
+        <v>19.58972625625424</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2008,97 +2035,97 @@
         <v>43</v>
       </c>
       <c r="B14">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C14">
+        <v>298</v>
+      </c>
+      <c r="D14">
+        <v>902</v>
+      </c>
+      <c r="E14">
+        <v>298</v>
+      </c>
+      <c r="F14">
+        <v>298</v>
+      </c>
+      <c r="G14">
+        <v>602</v>
+      </c>
+      <c r="H14">
+        <v>1380</v>
+      </c>
+      <c r="I14">
+        <v>408</v>
+      </c>
+      <c r="J14">
+        <v>370</v>
+      </c>
+      <c r="K14">
+        <v>778</v>
+      </c>
+      <c r="L14">
+        <v>2282</v>
+      </c>
+      <c r="M14">
         <v>304</v>
       </c>
-      <c r="D14">
-        <v>860</v>
-      </c>
-      <c r="E14">
-        <v>304</v>
-      </c>
-      <c r="F14">
-        <v>252</v>
-      </c>
-      <c r="G14">
-        <v>776</v>
-      </c>
-      <c r="H14">
-        <v>1384</v>
-      </c>
-      <c r="I14">
-        <v>304</v>
-      </c>
-      <c r="J14">
-        <v>304</v>
-      </c>
-      <c r="K14">
-        <v>608</v>
-      </c>
-      <c r="L14">
-        <v>2244</v>
-      </c>
-      <c r="M14">
-        <v>524</v>
-      </c>
       <c r="N14">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="S14">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T14">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="U14">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="V14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W14">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="X14">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="Y14">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="Z14">
-        <v>23.41853992195166</v>
+        <v>24.66351247041516</v>
       </c>
       <c r="AA14">
-        <v>34.08744742425353</v>
+        <v>49.17405748062177</v>
       </c>
       <c r="AB14">
-        <v>23.51544993495972</v>
+        <v>23.40823996531185</v>
       </c>
       <c r="AC14">
-        <v>47.03089986991944</v>
+        <v>43.49772116799929</v>
       </c>
       <c r="AD14">
-        <v>23.51544993495972</v>
+        <v>20.08948120268744</v>
       </c>
       <c r="AE14">
-        <v>81.11834729417296</v>
+        <v>92.67177864862106</v>
       </c>
       <c r="AF14">
-        <v>10.66890750230186</v>
+        <v>24.51054501020661</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2106,97 +2133,97 @@
         <v>44</v>
       </c>
       <c r="B15">
+        <v>278</v>
+      </c>
+      <c r="C15">
         <v>280</v>
       </c>
-      <c r="C15">
-        <v>278</v>
-      </c>
       <c r="D15">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E15">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F15">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G15">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H15">
-        <v>1316</v>
+        <v>1236</v>
       </c>
       <c r="I15">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="J15">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="K15">
-        <v>740</v>
+        <v>658</v>
       </c>
       <c r="L15">
-        <v>2152</v>
+        <v>2074</v>
       </c>
       <c r="M15">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="T15">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="U15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V15">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="W15">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="X15">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y15">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Z15">
-        <v>25.61235994796778</v>
+        <v>26.36248247475118</v>
       </c>
       <c r="AA15">
-        <v>45.03089986991944</v>
+        <v>49.62805493649429</v>
       </c>
       <c r="AB15">
-        <v>23.33445375115093</v>
+        <v>27.28330122870355</v>
       </c>
       <c r="AC15">
-        <v>46.66890750230186</v>
+        <v>51.52084496684643</v>
       </c>
       <c r="AD15">
-        <v>23.33445375115093</v>
+        <v>24.23754373814288</v>
       </c>
       <c r="AE15">
-        <v>91.6998073722213</v>
+        <v>101.1488999033407</v>
       </c>
       <c r="AF15">
-        <v>19.41853992195166</v>
+        <v>23.26557246174312</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2204,97 +2231,97 @@
         <v>45</v>
       </c>
       <c r="B16">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="C16">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="D16">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E16">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="F16">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G16">
-        <v>536</v>
+        <v>776</v>
       </c>
       <c r="H16">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="I16">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="J16">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="K16">
-        <v>856</v>
+        <v>608</v>
       </c>
       <c r="L16">
-        <v>2260</v>
+        <v>2244</v>
       </c>
       <c r="M16">
-        <v>268</v>
+        <v>524</v>
       </c>
       <c r="N16">
         <v>19</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P16">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S16">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="T16">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="U16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W16">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="X16">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="Y16">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Z16">
-        <v>25.61235994796778</v>
+        <v>23.41853992195166</v>
       </c>
       <c r="AA16">
-        <v>51.22471989593555</v>
+        <v>34.08744742425353</v>
       </c>
       <c r="AB16">
-        <v>20.78845120702346</v>
+        <v>23.51544993495972</v>
       </c>
       <c r="AC16">
-        <v>41.57690241404691</v>
+        <v>47.03089986991944</v>
       </c>
       <c r="AD16">
-        <v>20.78845120702346</v>
+        <v>23.51544993495972</v>
       </c>
       <c r="AE16">
-        <v>92.80162230998246</v>
+        <v>81.11834729417296</v>
       </c>
       <c r="AF16">
-        <v>25.61235994796778</v>
+        <v>10.66890750230186</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2302,97 +2329,97 @@
         <v>46</v>
       </c>
       <c r="B17">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="C17">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D17">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="E17">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F17">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G17">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="H17">
-        <v>1236</v>
+        <v>1376</v>
       </c>
       <c r="I17">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="J17">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="K17">
-        <v>658</v>
+        <v>832</v>
       </c>
       <c r="L17">
-        <v>2074</v>
+        <v>2236</v>
       </c>
       <c r="M17">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S17">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="T17">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="U17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="V17">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="W17">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="X17">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="Y17">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Z17">
-        <v>26.36248247475118</v>
+        <v>19.41853992195166</v>
       </c>
       <c r="AA17">
-        <v>49.62805493649429</v>
+        <v>38.83707984390333</v>
       </c>
       <c r="AB17">
-        <v>27.28330122870355</v>
+        <v>20.53857373380686</v>
       </c>
       <c r="AC17">
-        <v>51.52084496684643</v>
+        <v>43.45196367743861</v>
       </c>
       <c r="AD17">
-        <v>24.23754373814288</v>
+        <v>22.91338994363176</v>
       </c>
       <c r="AE17">
-        <v>101.1488999033407</v>
+        <v>82.28904352134194</v>
       </c>
       <c r="AF17">
-        <v>23.26557246174312</v>
+        <v>19.41853992195166</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2400,97 +2427,97 @@
         <v>47</v>
       </c>
       <c r="B18">
+        <v>268</v>
+      </c>
+      <c r="C18">
         <v>296</v>
       </c>
-      <c r="C18">
-        <v>302</v>
-      </c>
       <c r="D18">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="E18">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F18">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="G18">
-        <v>662</v>
+        <v>728</v>
       </c>
       <c r="H18">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="I18">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="J18">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="K18">
-        <v>720</v>
+        <v>592</v>
       </c>
       <c r="L18">
-        <v>2282</v>
+        <v>2180</v>
       </c>
       <c r="M18">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="N18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R18">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <v>34</v>
+      </c>
+      <c r="T18">
+        <v>56</v>
+      </c>
+      <c r="U18">
         <v>11</v>
       </c>
-      <c r="S18">
-        <v>26</v>
-      </c>
-      <c r="T18">
-        <v>57</v>
-      </c>
-      <c r="U18">
+      <c r="V18">
+        <v>11</v>
+      </c>
+      <c r="W18">
+        <v>22</v>
+      </c>
+      <c r="X18">
+        <v>73</v>
+      </c>
+      <c r="Y18">
         <v>13</v>
       </c>
-      <c r="V18">
-        <v>18</v>
-      </c>
-      <c r="W18">
-        <v>31</v>
-      </c>
-      <c r="X18">
-        <v>80</v>
-      </c>
-      <c r="Y18">
-        <v>15</v>
-      </c>
       <c r="Z18">
-        <v>23.78845120702346</v>
+        <v>21.36248247475118</v>
       </c>
       <c r="AA18">
-        <v>44.07714746761371</v>
+        <v>43.32702494083031</v>
       </c>
       <c r="AB18">
-        <v>22.51054501020661</v>
+        <v>27.45939248775923</v>
       </c>
       <c r="AC18">
-        <v>47.12290495817439</v>
+        <v>54.91878497551846</v>
       </c>
       <c r="AD18">
-        <v>24.61235994796778</v>
+        <v>27.45939248775923</v>
       </c>
       <c r="AE18">
-        <v>91.2000524257881</v>
+        <v>98.24580991634878</v>
       </c>
       <c r="AF18">
-        <v>20.28869626059026</v>
+        <v>21.96454246607914</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2498,97 +2525,97 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C19">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D19">
-        <v>850</v>
+        <v>894</v>
       </c>
       <c r="E19">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="F19">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="G19">
-        <v>614</v>
+        <v>736</v>
       </c>
       <c r="H19">
-        <v>1328</v>
+        <v>1402</v>
       </c>
       <c r="I19">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="J19">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K19">
-        <v>714</v>
+        <v>666</v>
       </c>
       <c r="L19">
-        <v>2178</v>
+        <v>2296</v>
       </c>
       <c r="M19">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S19">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="T19">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="U19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W19">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X19">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Z19">
-        <v>24.58433122436753</v>
+        <v>27.55630250076729</v>
       </c>
       <c r="AA19">
-        <v>48.24784369478269</v>
+        <v>46.32212001607721</v>
       </c>
       <c r="AB19">
-        <v>24.28330122870355</v>
+        <v>27.80617997398389</v>
       </c>
       <c r="AC19">
-        <v>47.61775497985448</v>
+        <v>56.36248247475118</v>
       </c>
       <c r="AD19">
-        <v>23.33445375115093</v>
+        <v>28.55630250076729</v>
       </c>
       <c r="AE19">
-        <v>95.86559867463717</v>
+        <v>102.6846024908284</v>
       </c>
       <c r="AF19">
-        <v>23.66351247041516</v>
+        <v>18.76581751530992</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2596,97 +2623,97 @@
         <v>49</v>
       </c>
       <c r="B20">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="C20">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="D20">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="E20">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="F20">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="G20">
-        <v>602</v>
+        <v>544</v>
       </c>
       <c r="H20">
-        <v>1380</v>
+        <v>1408</v>
       </c>
       <c r="I20">
-        <v>408</v>
+        <v>524</v>
       </c>
       <c r="J20">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K20">
-        <v>778</v>
+        <v>864</v>
       </c>
       <c r="L20">
-        <v>2282</v>
+        <v>2292</v>
       </c>
       <c r="M20">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="N20">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="U20">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="V20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W20">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X20">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="Y20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>24.66351247041516</v>
+        <v>29.01029995663981</v>
       </c>
       <c r="AA20">
-        <v>49.17405748062177</v>
+        <v>58.02059991327963</v>
       </c>
       <c r="AB20">
-        <v>23.40823996531185</v>
+        <v>27.70926996097583</v>
       </c>
       <c r="AC20">
-        <v>43.49772116799929</v>
+        <v>41.64578370345473</v>
       </c>
       <c r="AD20">
-        <v>20.08948120268744</v>
+        <v>13.93651374247889</v>
       </c>
       <c r="AE20">
-        <v>92.67177864862106</v>
+        <v>99.66638361673435</v>
       </c>
       <c r="AF20">
-        <v>24.51054501020661</v>
+        <v>29.01029995663981</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2694,97 +2721,97 @@
         <v>50</v>
       </c>
       <c r="B21">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C21">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D21">
-        <v>814</v>
+        <v>868</v>
       </c>
       <c r="E21">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="F21">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="G21">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="H21">
-        <v>1222</v>
+        <v>1322</v>
       </c>
       <c r="I21">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="J21">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="K21">
-        <v>630</v>
+        <v>684</v>
       </c>
       <c r="L21">
-        <v>2036</v>
+        <v>2190</v>
       </c>
       <c r="M21">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P21">
+        <v>27</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21">
         <v>11</v>
       </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>7</v>
-      </c>
       <c r="S21">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="T21">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="U21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="X21">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="Y21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z21">
-        <v>23.88536122003151</v>
+        <v>23.06145247908719</v>
       </c>
       <c r="AA21">
-        <v>48.54887369044667</v>
+        <v>44.77611747194973</v>
       </c>
       <c r="AB21">
-        <v>25.23754373814288</v>
+        <v>22.3167249841905</v>
       </c>
       <c r="AC21">
-        <v>50.60002621289405</v>
+        <v>45.10517619121396</v>
       </c>
       <c r="AD21">
-        <v>25.36248247475118</v>
+        <v>22.78845120702346</v>
       </c>
       <c r="AE21">
-        <v>99.14889990334072</v>
+        <v>89.88129366316369</v>
       </c>
       <c r="AF21">
-        <v>24.66351247041516</v>
+        <v>21.71466499286254</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2792,97 +2819,97 @@
         <v>51</v>
       </c>
       <c r="B22">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C22">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D22">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="E22">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F22">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="G22">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="H22">
-        <v>1342</v>
+        <v>1380</v>
       </c>
       <c r="I22">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="J22">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K22">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="L22">
-        <v>2246</v>
+        <v>2264</v>
       </c>
       <c r="M22">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O22">
         <v>7</v>
       </c>
       <c r="P22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q22">
         <v>7</v>
       </c>
       <c r="R22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T22">
         <v>54</v>
       </c>
       <c r="U22">
+        <v>17</v>
+      </c>
+      <c r="V22">
         <v>16</v>
       </c>
-      <c r="V22">
-        <v>14</v>
-      </c>
       <c r="W22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X22">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z22">
-        <v>24.45939248775923</v>
+        <v>21.23754373814288</v>
       </c>
       <c r="AA22">
-        <v>44.04911874401347</v>
+        <v>42.37817746327769</v>
       </c>
       <c r="AB22">
-        <v>25.11260500153458</v>
+        <v>23.01569498852652</v>
       </c>
       <c r="AC22">
-        <v>48.44705875268551</v>
+        <v>46.37817746327769</v>
       </c>
       <c r="AD22">
-        <v>23.33445375115093</v>
+        <v>23.36248247475118</v>
       </c>
       <c r="AE22">
-        <v>92.49617749669898</v>
+        <v>88.75635492655539</v>
       </c>
       <c r="AF22">
-        <v>19.58972625625424</v>
+        <v>21.14063372513482</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -2890,97 +2917,97 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C23">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D23">
-        <v>826</v>
+        <v>866</v>
       </c>
       <c r="E23">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F23">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G23">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="H23">
-        <v>1294</v>
+        <v>1364</v>
       </c>
       <c r="I23">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="J23">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K23">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="L23">
-        <v>2120</v>
+        <v>2230</v>
       </c>
       <c r="M23">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="N23">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>19</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
         <v>8</v>
       </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23">
+      <c r="S23">
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <v>51</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
         <v>16</v>
       </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-      <c r="R23">
-        <v>6</v>
-      </c>
-      <c r="S23">
-        <v>16</v>
-      </c>
-      <c r="T23">
-        <v>48</v>
-      </c>
-      <c r="U23">
-        <v>12</v>
-      </c>
-      <c r="V23">
-        <v>20</v>
-      </c>
       <c r="W23">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X23">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Y23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z23">
-        <v>25.83960372947084</v>
+        <v>26.48742121135948</v>
       </c>
       <c r="AA23">
-        <v>49.02599494516633</v>
+        <v>45.20208620422201</v>
       </c>
       <c r="AB23">
-        <v>21.4416637207988</v>
+        <v>23.58433122436753</v>
       </c>
       <c r="AC23">
-        <v>47.50311619988599</v>
+        <v>51.6915411940154</v>
       </c>
       <c r="AD23">
-        <v>26.06145247908719</v>
+        <v>28.10720996964787</v>
       </c>
       <c r="AE23">
-        <v>96.52911114505233</v>
+        <v>96.89362739823741</v>
       </c>
       <c r="AF23">
-        <v>23.18639121569549</v>
+        <v>18.71466499286254</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -2988,97 +3015,97 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C24">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D24">
-        <v>866</v>
+        <v>814</v>
       </c>
       <c r="E24">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F24">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G24">
-        <v>670</v>
+        <v>592</v>
       </c>
       <c r="H24">
-        <v>1364</v>
+        <v>1222</v>
       </c>
       <c r="I24">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="J24">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="K24">
-        <v>694</v>
+        <v>630</v>
       </c>
       <c r="L24">
-        <v>2230</v>
+        <v>2036</v>
       </c>
       <c r="M24">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="T24">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X24">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="Y24">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Z24">
-        <v>26.48742121135948</v>
+        <v>23.88536122003151</v>
       </c>
       <c r="AA24">
-        <v>45.20208620422201</v>
+        <v>48.54887369044667</v>
       </c>
       <c r="AB24">
-        <v>23.58433122436753</v>
+        <v>25.23754373814288</v>
       </c>
       <c r="AC24">
-        <v>51.6915411940154</v>
+        <v>50.60002621289405</v>
       </c>
       <c r="AD24">
-        <v>28.10720996964787</v>
+        <v>25.36248247475118</v>
       </c>
       <c r="AE24">
-        <v>96.89362739823741</v>
+        <v>99.14889990334072</v>
       </c>
       <c r="AF24">
-        <v>18.71466499286254</v>
+        <v>24.66351247041516</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3086,97 +3113,97 @@
         <v>54</v>
       </c>
       <c r="B25">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C25">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="D25">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="E25">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F25">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="G25">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="H25">
-        <v>1362</v>
+        <v>1328</v>
       </c>
       <c r="I25">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="J25">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="K25">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="L25">
-        <v>2262</v>
+        <v>2178</v>
       </c>
       <c r="M25">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>13</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>43</v>
+      </c>
+      <c r="U25">
+        <v>15</v>
+      </c>
+      <c r="V25">
+        <v>15</v>
+      </c>
+      <c r="W25">
+        <v>30</v>
+      </c>
+      <c r="X25">
+        <v>56</v>
+      </c>
+      <c r="Y25">
         <v>8</v>
       </c>
-      <c r="P25">
-        <v>25</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-      <c r="R25">
-        <v>13</v>
-      </c>
-      <c r="S25">
-        <v>24</v>
-      </c>
-      <c r="T25">
-        <v>60</v>
-      </c>
-      <c r="U25">
-        <v>16</v>
-      </c>
-      <c r="V25">
-        <v>20</v>
-      </c>
-      <c r="W25">
-        <v>36</v>
-      </c>
-      <c r="X25">
-        <v>85</v>
-      </c>
-      <c r="Y25">
-        <v>11</v>
-      </c>
       <c r="Z25">
-        <v>22.01569498852652</v>
+        <v>24.58433122436753</v>
       </c>
       <c r="AA25">
-        <v>44.20208620422201</v>
+        <v>48.24784369478269</v>
       </c>
       <c r="AB25">
-        <v>22.70926996097583</v>
+        <v>24.28330122870355</v>
       </c>
       <c r="AC25">
-        <v>46.37278243139099</v>
+        <v>47.61775497985448</v>
       </c>
       <c r="AD25">
+        <v>23.33445375115093</v>
+      </c>
+      <c r="AE25">
+        <v>95.86559867463717</v>
+      </c>
+      <c r="AF25">
         <v>23.66351247041516</v>
-      </c>
-      <c r="AE25">
-        <v>90.574868635613</v>
-      </c>
-      <c r="AF25">
-        <v>22.18639121569549</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3184,97 +3211,97 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C26">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D26">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="E26">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F26">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="G26">
-        <v>612</v>
+        <v>536</v>
       </c>
       <c r="H26">
-        <v>1322</v>
+        <v>1392</v>
       </c>
       <c r="I26">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="J26">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="K26">
-        <v>710</v>
+        <v>856</v>
       </c>
       <c r="L26">
-        <v>2176</v>
+        <v>2260</v>
       </c>
       <c r="M26">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P26">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S26">
         <v>22</v>
       </c>
       <c r="T26">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="U26">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="V26">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="W26">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="X26">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="Y26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z26">
-        <v>22.61775497985448</v>
+        <v>25.61235994796778</v>
       </c>
       <c r="AA26">
-        <v>47.57199748929381</v>
+        <v>51.22471989593555</v>
       </c>
       <c r="AB26">
-        <v>20.5666024574071</v>
+        <v>20.78845120702346</v>
       </c>
       <c r="AC26">
-        <v>44.92908493215828</v>
+        <v>41.57690241404691</v>
       </c>
       <c r="AD26">
-        <v>24.36248247475118</v>
+        <v>20.78845120702346</v>
       </c>
       <c r="AE26">
-        <v>92.50108242145208</v>
+        <v>92.80162230998246</v>
       </c>
       <c r="AF26">
-        <v>24.95424250943933</v>
+        <v>25.61235994796778</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3282,97 +3309,97 @@
         <v>56</v>
       </c>
       <c r="B27">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="C27">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D27">
-        <v>884</v>
+        <v>948</v>
       </c>
       <c r="E27">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F27">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G27">
-        <v>664</v>
+        <v>600</v>
       </c>
       <c r="H27">
-        <v>1380</v>
+        <v>1472</v>
       </c>
       <c r="I27">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J27">
-        <v>334</v>
+        <v>436</v>
       </c>
       <c r="K27">
-        <v>716</v>
+        <v>872</v>
       </c>
       <c r="L27">
-        <v>2264</v>
+        <v>2420</v>
       </c>
       <c r="M27">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O27">
         <v>7</v>
       </c>
       <c r="P27">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q27">
         <v>7</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T27">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="U27">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="V27">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="W27">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="X27">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y27">
         <v>11</v>
       </c>
       <c r="Z27">
-        <v>21.23754373814288</v>
+        <v>25.61235994796778</v>
       </c>
       <c r="AA27">
-        <v>42.37817746327769</v>
+        <v>51.22471989593555</v>
       </c>
       <c r="AB27">
-        <v>23.01569498852652</v>
+        <v>20.85733249643127</v>
       </c>
       <c r="AC27">
-        <v>46.37817746327769</v>
+        <v>41.71466499286254</v>
       </c>
       <c r="AD27">
-        <v>23.36248247475118</v>
+        <v>20.85733249643127</v>
       </c>
       <c r="AE27">
-        <v>88.75635492655539</v>
+        <v>92.93938488879809</v>
       </c>
       <c r="AF27">
-        <v>21.14063372513482</v>
+        <v>25.61235994796778</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3380,97 +3407,97 @@
         <v>57</v>
       </c>
       <c r="B28">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C28">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D28">
-        <v>908</v>
+        <v>792</v>
       </c>
       <c r="E28">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="F28">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="G28">
-        <v>652</v>
+        <v>544</v>
       </c>
       <c r="H28">
-        <v>1376</v>
+        <v>1236</v>
       </c>
       <c r="I28">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J28">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="K28">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="L28">
-        <v>2284</v>
+        <v>2028</v>
       </c>
       <c r="M28">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="N28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T28">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W28">
         <v>34</v>
       </c>
       <c r="X28">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z28">
-        <v>25.11260500153458</v>
+        <v>24.08948120268744</v>
       </c>
       <c r="AA28">
-        <v>45.55426872233338</v>
+        <v>45.11057122310066</v>
       </c>
       <c r="AB28">
-        <v>22.66351247041516</v>
+        <v>25.76042248342321</v>
       </c>
       <c r="AC28">
-        <v>47.02599494516633</v>
+        <v>51.52084496684643</v>
       </c>
       <c r="AD28">
-        <v>24.36248247475118</v>
+        <v>25.76042248342321</v>
       </c>
       <c r="AE28">
-        <v>92.58026366749971</v>
+        <v>96.63141618994709</v>
       </c>
       <c r="AF28">
-        <v>20.4416637207988</v>
+        <v>21.02109002041323</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3478,97 +3505,97 @@
         <v>58</v>
       </c>
       <c r="B29">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C29">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="D29">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="E29">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="F29">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G29">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="H29">
-        <v>1290</v>
+        <v>1172</v>
       </c>
       <c r="I29">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="J29">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="K29">
-        <v>680</v>
+        <v>616</v>
       </c>
       <c r="L29">
-        <v>2170</v>
+        <v>1992</v>
       </c>
       <c r="M29">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>23</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>28</v>
+      </c>
+      <c r="S29">
+        <v>42</v>
+      </c>
+      <c r="T29">
+        <v>58</v>
+      </c>
+      <c r="U29">
         <v>9</v>
       </c>
-      <c r="O29">
-        <v>5</v>
-      </c>
-      <c r="P29">
-        <v>19</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-      <c r="R29">
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29">
+        <v>16</v>
+      </c>
+      <c r="X29">
+        <v>81</v>
+      </c>
+      <c r="Y29">
         <v>14</v>
       </c>
-      <c r="S29">
-        <v>23</v>
-      </c>
-      <c r="T29">
-        <v>51</v>
-      </c>
-      <c r="U29">
-        <v>19</v>
-      </c>
-      <c r="V29">
-        <v>9</v>
-      </c>
-      <c r="W29">
-        <v>28</v>
-      </c>
-      <c r="X29">
-        <v>70</v>
-      </c>
-      <c r="Y29">
-        <v>9</v>
-      </c>
       <c r="Z29">
-        <v>22.93651374247889</v>
+        <v>15.37327253852459</v>
       </c>
       <c r="AA29">
-        <v>47.77611747194973</v>
+        <v>47.17945251250848</v>
       </c>
       <c r="AB29">
-        <v>27.98227123303957</v>
+        <v>28.85733249643127</v>
       </c>
       <c r="AC29">
-        <v>50.4416637207988</v>
+        <v>56.5666024574071</v>
       </c>
       <c r="AD29">
-        <v>22.45939248775923</v>
+        <v>27.70926996097583</v>
       </c>
       <c r="AE29">
-        <v>98.21778119274853</v>
+        <v>103.7460549699156</v>
       </c>
       <c r="AF29">
-        <v>24.83960372947084</v>
+        <v>31.80617997398389</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3576,97 +3603,97 @@
         <v>59</v>
       </c>
       <c r="B30">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="C30">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D30">
-        <v>868</v>
+        <v>988</v>
       </c>
       <c r="E30">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F30">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G30">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="H30">
-        <v>1322</v>
+        <v>1472</v>
       </c>
       <c r="I30">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="J30">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="K30">
-        <v>684</v>
+        <v>804</v>
       </c>
       <c r="L30">
-        <v>2190</v>
+        <v>2460</v>
       </c>
       <c r="M30">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="N30">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P30">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="R30">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="S30">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="T30">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="U30">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="V30">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W30">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="X30">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="Y30">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Z30">
-        <v>23.06145247908719</v>
+        <v>17.41853992195166</v>
       </c>
       <c r="AA30">
-        <v>44.77611747194973</v>
+        <v>32.79181246047625</v>
       </c>
       <c r="AB30">
-        <v>22.3167249841905</v>
+        <v>21.61775497985448</v>
       </c>
       <c r="AC30">
-        <v>45.10517619121396</v>
+        <v>40.60002621289405</v>
       </c>
       <c r="AD30">
-        <v>22.78845120702346</v>
+        <v>18.98227123303957</v>
       </c>
       <c r="AE30">
-        <v>89.88129366316369</v>
+        <v>73.3918386733703</v>
       </c>
       <c r="AF30">
-        <v>21.71466499286254</v>
+        <v>15.37327253852459</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3674,97 +3701,97 @@
         <v>60</v>
       </c>
       <c r="B31">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C31">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D31">
-        <v>916</v>
+        <v>884</v>
       </c>
       <c r="E31">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F31">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="G31">
-        <v>626</v>
+        <v>728</v>
       </c>
       <c r="H31">
-        <v>1362</v>
+        <v>1408</v>
       </c>
       <c r="I31">
+        <v>340</v>
+      </c>
+      <c r="J31">
+        <v>340</v>
+      </c>
+      <c r="K31">
+        <v>680</v>
+      </c>
+      <c r="L31">
+        <v>2292</v>
+      </c>
+      <c r="M31">
         <v>364</v>
       </c>
-      <c r="J31">
-        <v>372</v>
-      </c>
-      <c r="K31">
-        <v>736</v>
-      </c>
-      <c r="L31">
-        <v>2278</v>
-      </c>
-      <c r="M31">
-        <v>320</v>
-      </c>
       <c r="N31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
         <v>17</v>
       </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31">
-        <v>10</v>
-      </c>
       <c r="S31">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="T31">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="U31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V31">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W31">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="X31">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="Y31">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z31">
-        <v>24.45939248775923</v>
+        <v>21.96454246607914</v>
       </c>
       <c r="AA31">
-        <v>48.04911874401347</v>
+        <v>43.92908493215828</v>
       </c>
       <c r="AB31">
-        <v>24.10720996964787</v>
+        <v>26.31132995230379</v>
       </c>
       <c r="AC31">
-        <v>47.46969244439904</v>
+        <v>52.62265990460759</v>
       </c>
       <c r="AD31">
-        <v>23.36248247475118</v>
+        <v>26.31132995230379</v>
       </c>
       <c r="AE31">
-        <v>95.51881118841251</v>
+        <v>96.55174483676586</v>
       </c>
       <c r="AF31">
-        <v>23.58972625625424</v>
+        <v>21.96454246607914</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3772,97 +3799,97 @@
         <v>61</v>
       </c>
       <c r="B32">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="C32">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="D32">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="E32">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="F32">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="G32">
-        <v>544</v>
+        <v>734</v>
       </c>
       <c r="H32">
-        <v>1408</v>
+        <v>1354</v>
       </c>
       <c r="I32">
-        <v>524</v>
+        <v>314</v>
       </c>
       <c r="J32">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="K32">
-        <v>864</v>
+        <v>620</v>
       </c>
       <c r="L32">
-        <v>2292</v>
+        <v>2226</v>
       </c>
       <c r="M32">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="N32">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="T32">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U32">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="V32">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="W32">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="X32">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z32">
-        <v>29.01029995663981</v>
+        <v>27.55630250076729</v>
       </c>
       <c r="AA32">
-        <v>58.02059991327963</v>
+        <v>41.60002621289405</v>
       </c>
       <c r="AB32">
-        <v>27.70926996097583</v>
+        <v>28.85733249643127</v>
       </c>
       <c r="AC32">
-        <v>41.64578370345473</v>
+        <v>57.01569498852652</v>
       </c>
       <c r="AD32">
-        <v>13.93651374247889</v>
+        <v>28.15836249209525</v>
       </c>
       <c r="AE32">
-        <v>99.66638361673435</v>
+        <v>98.61572120142057</v>
       </c>
       <c r="AF32">
-        <v>29.01029995663981</v>
+        <v>14.04372371212676</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -3870,97 +3897,97 @@
         <v>62</v>
       </c>
       <c r="B33">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="C33">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D33">
-        <v>820</v>
+        <v>916</v>
       </c>
       <c r="E33">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="F33">
+        <v>306</v>
+      </c>
+      <c r="G33">
+        <v>626</v>
+      </c>
+      <c r="H33">
+        <v>1362</v>
+      </c>
+      <c r="I33">
         <v>364</v>
       </c>
-      <c r="G33">
-        <v>712</v>
-      </c>
-      <c r="H33">
-        <v>1344</v>
-      </c>
-      <c r="I33">
-        <v>316</v>
-      </c>
       <c r="J33">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="K33">
-        <v>632</v>
+        <v>736</v>
       </c>
       <c r="L33">
-        <v>2164</v>
+        <v>2278</v>
       </c>
       <c r="M33">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="N33">
         <v>9</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>20</v>
+      </c>
+      <c r="T33">
+        <v>53</v>
+      </c>
+      <c r="U33">
         <v>19</v>
-      </c>
-      <c r="S33">
-        <v>32</v>
-      </c>
-      <c r="T33">
-        <v>60</v>
-      </c>
-      <c r="U33">
-        <v>14</v>
       </c>
       <c r="V33">
         <v>14</v>
       </c>
       <c r="W33">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="X33">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Y33">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z33">
-        <v>18.5666024574071</v>
+        <v>24.45939248775923</v>
       </c>
       <c r="AA33">
-        <v>39.92908493215828</v>
+        <v>48.04911874401347</v>
       </c>
       <c r="AB33">
-        <v>26.06145247908719</v>
+        <v>24.10720996964787</v>
       </c>
       <c r="AC33">
-        <v>52.12290495817439</v>
+        <v>47.46969244439904</v>
       </c>
       <c r="AD33">
-        <v>26.06145247908719</v>
+        <v>23.36248247475118</v>
       </c>
       <c r="AE33">
-        <v>92.05198989033266</v>
+        <v>95.51881118841251</v>
       </c>
       <c r="AF33">
-        <v>21.36248247475118</v>
+        <v>23.58972625625424</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -3968,97 +3995,97 @@
         <v>63</v>
       </c>
       <c r="B34">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C34">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D34">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="E34">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F34">
+        <v>310</v>
+      </c>
+      <c r="G34">
+        <v>610</v>
+      </c>
+      <c r="H34">
+        <v>1290</v>
+      </c>
+      <c r="I34">
+        <v>358</v>
+      </c>
+      <c r="J34">
         <v>322</v>
       </c>
-      <c r="G34">
-        <v>734</v>
-      </c>
-      <c r="H34">
-        <v>1354</v>
-      </c>
-      <c r="I34">
-        <v>314</v>
-      </c>
-      <c r="J34">
-        <v>306</v>
-      </c>
       <c r="K34">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="L34">
-        <v>2226</v>
+        <v>2170</v>
       </c>
       <c r="M34">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="N34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O34">
         <v>5</v>
       </c>
       <c r="P34">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q34">
         <v>5</v>
       </c>
       <c r="R34">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="S34">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="T34">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="U34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="V34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W34">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="X34">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="Y34">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="Z34">
-        <v>27.55630250076729</v>
+        <v>22.93651374247889</v>
       </c>
       <c r="AA34">
-        <v>41.60002621289405</v>
+        <v>47.77611747194973</v>
       </c>
       <c r="AB34">
-        <v>28.85733249643127</v>
+        <v>27.98227123303957</v>
       </c>
       <c r="AC34">
-        <v>57.01569498852652</v>
+        <v>50.4416637207988</v>
       </c>
       <c r="AD34">
-        <v>28.15836249209525</v>
+        <v>22.45939248775923</v>
       </c>
       <c r="AE34">
-        <v>98.61572120142057</v>
+        <v>98.21778119274853</v>
       </c>
       <c r="AF34">
-        <v>14.04372371212676</v>
+        <v>24.83960372947084</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4066,97 +4093,97 @@
         <v>64</v>
       </c>
       <c r="B35">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C35">
+        <v>282</v>
+      </c>
+      <c r="D35">
+        <v>854</v>
+      </c>
+      <c r="E35">
+        <v>282</v>
+      </c>
+      <c r="F35">
         <v>296</v>
       </c>
-      <c r="D35">
-        <v>894</v>
-      </c>
-      <c r="E35">
-        <v>296</v>
-      </c>
-      <c r="F35">
-        <v>334</v>
-      </c>
       <c r="G35">
-        <v>736</v>
+        <v>612</v>
       </c>
       <c r="H35">
-        <v>1402</v>
+        <v>1322</v>
       </c>
       <c r="I35">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="J35">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="K35">
-        <v>666</v>
+        <v>710</v>
       </c>
       <c r="L35">
-        <v>2296</v>
+        <v>2176</v>
       </c>
       <c r="M35">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="N35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P35">
         <v>20</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="S35">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="T35">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="U35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V35">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W35">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X35">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Y35">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Z35">
-        <v>27.55630250076729</v>
+        <v>22.61775497985448</v>
       </c>
       <c r="AA35">
-        <v>46.32212001607721</v>
+        <v>47.57199748929381</v>
       </c>
       <c r="AB35">
-        <v>27.80617997398389</v>
+        <v>20.5666024574071</v>
       </c>
       <c r="AC35">
-        <v>56.36248247475118</v>
+        <v>44.92908493215828</v>
       </c>
       <c r="AD35">
-        <v>28.55630250076729</v>
+        <v>24.36248247475118</v>
       </c>
       <c r="AE35">
-        <v>102.6846024908284</v>
+        <v>92.50108242145208</v>
       </c>
       <c r="AF35">
-        <v>18.76581751530992</v>
+        <v>24.95424250943933</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4164,97 +4191,97 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C36">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D36">
-        <v>952</v>
+        <v>826</v>
       </c>
       <c r="E36">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="F36">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="G36">
-        <v>756</v>
+        <v>620</v>
       </c>
       <c r="H36">
-        <v>1428</v>
+        <v>1294</v>
       </c>
       <c r="I36">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="J36">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="K36">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L36">
-        <v>2380</v>
+        <v>2120</v>
       </c>
       <c r="M36">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="S36">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="T36">
+        <v>48</v>
+      </c>
+      <c r="U36">
+        <v>12</v>
+      </c>
+      <c r="V36">
+        <v>20</v>
+      </c>
+      <c r="W36">
+        <v>32</v>
+      </c>
+      <c r="X36">
         <v>64</v>
       </c>
-      <c r="U36">
+      <c r="Y36">
         <v>10</v>
       </c>
-      <c r="V36">
-        <v>10</v>
-      </c>
-      <c r="W36">
-        <v>20</v>
-      </c>
-      <c r="X36">
-        <v>79</v>
-      </c>
-      <c r="Y36">
-        <v>25</v>
-      </c>
       <c r="Z36">
-        <v>17.04372371212676</v>
+        <v>25.83960372947084</v>
       </c>
       <c r="AA36">
-        <v>44.60002621289405</v>
+        <v>49.02599494516633</v>
       </c>
       <c r="AB36">
-        <v>26.51054501020661</v>
+        <v>21.4416637207988</v>
       </c>
       <c r="AC36">
-        <v>53.02109002041323</v>
+        <v>47.50311619988599</v>
       </c>
       <c r="AD36">
-        <v>26.51054501020661</v>
+        <v>26.06145247908719</v>
       </c>
       <c r="AE36">
-        <v>97.62111623330728</v>
+        <v>96.52911114505233</v>
       </c>
       <c r="AF36">
-        <v>27.55630250076729</v>
+        <v>23.18639121569549</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4262,97 +4289,97 @@
         <v>66</v>
       </c>
       <c r="B37">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="C37">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D37">
-        <v>884</v>
+        <v>964</v>
       </c>
       <c r="E37">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="F37">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="G37">
-        <v>728</v>
+        <v>544</v>
       </c>
       <c r="H37">
-        <v>1408</v>
+        <v>1488</v>
       </c>
       <c r="I37">
-        <v>340</v>
+        <v>508</v>
       </c>
       <c r="J37">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="K37">
-        <v>680</v>
+        <v>944</v>
       </c>
       <c r="L37">
-        <v>2292</v>
+        <v>2452</v>
       </c>
       <c r="M37">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="N37">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P37">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R37">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="S37">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="T37">
+        <v>92</v>
+      </c>
+      <c r="U37">
+        <v>47</v>
+      </c>
+      <c r="V37">
+        <v>29</v>
+      </c>
+      <c r="W37">
         <v>76</v>
       </c>
-      <c r="U37">
-        <v>21</v>
-      </c>
-      <c r="V37">
-        <v>21</v>
-      </c>
-      <c r="W37">
-        <v>42</v>
-      </c>
       <c r="X37">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="Y37">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z37">
-        <v>21.96454246607914</v>
+        <v>25.36248247475118</v>
       </c>
       <c r="AA37">
-        <v>43.92908493215828</v>
+        <v>50.72496494950235</v>
       </c>
       <c r="AB37">
-        <v>26.31132995230379</v>
+        <v>19.45939248775923</v>
       </c>
       <c r="AC37">
-        <v>52.62265990460759</v>
+        <v>35.21981497118244</v>
       </c>
       <c r="AD37">
-        <v>26.31132995230379</v>
+        <v>15.76042248342321</v>
       </c>
       <c r="AE37">
-        <v>96.55174483676586</v>
+        <v>85.94477992068479</v>
       </c>
       <c r="AF37">
-        <v>21.96454246607914</v>
+        <v>25.36248247475118</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4360,97 +4387,97 @@
         <v>67</v>
       </c>
       <c r="B38">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="C38">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D38">
-        <v>860</v>
+        <v>932</v>
       </c>
       <c r="E38">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F38">
+        <v>284</v>
+      </c>
+      <c r="G38">
+        <v>568</v>
+      </c>
+      <c r="H38">
+        <v>1424</v>
+      </c>
+      <c r="I38">
+        <v>444</v>
+      </c>
+      <c r="J38">
         <v>412</v>
       </c>
-      <c r="G38">
-        <v>728</v>
-      </c>
-      <c r="H38">
-        <v>1320</v>
-      </c>
-      <c r="I38">
-        <v>296</v>
-      </c>
-      <c r="J38">
-        <v>296</v>
-      </c>
       <c r="K38">
-        <v>592</v>
+        <v>856</v>
       </c>
       <c r="L38">
-        <v>2180</v>
+        <v>2356</v>
       </c>
       <c r="M38">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="N38">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P38">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S38">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="T38">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="U38">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="V38">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="W38">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="X38">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="Y38">
         <v>13</v>
       </c>
       <c r="Z38">
-        <v>21.36248247475118</v>
+        <v>22.3167249841905</v>
       </c>
       <c r="AA38">
-        <v>43.32702494083031</v>
+        <v>44.633449968381</v>
       </c>
       <c r="AB38">
-        <v>27.45939248775923</v>
+        <v>21.14063372513482</v>
       </c>
       <c r="AC38">
-        <v>54.91878497551846</v>
+        <v>41.52084496684643</v>
       </c>
       <c r="AD38">
-        <v>27.45939248775923</v>
+        <v>20.38021124171161</v>
       </c>
       <c r="AE38">
-        <v>98.24580991634878</v>
+        <v>86.15429493522743</v>
       </c>
       <c r="AF38">
-        <v>21.96454246607914</v>
+        <v>22.3167249841905</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4556,97 +4583,97 @@
         <v>69</v>
       </c>
       <c r="B40">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="C40">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D40">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="E40">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F40">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="G40">
-        <v>668</v>
+        <v>756</v>
       </c>
       <c r="H40">
-        <v>1472</v>
+        <v>1428</v>
       </c>
       <c r="I40">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="J40">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="K40">
-        <v>804</v>
+        <v>672</v>
       </c>
       <c r="L40">
-        <v>2460</v>
+        <v>2380</v>
       </c>
       <c r="M40">
         <v>368</v>
       </c>
       <c r="N40">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S40">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="T40">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="U40">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V40">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="W40">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X40">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="Y40">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z40">
-        <v>17.41853992195166</v>
+        <v>17.04372371212676</v>
       </c>
       <c r="AA40">
-        <v>32.79181246047625</v>
+        <v>44.60002621289405</v>
       </c>
       <c r="AB40">
-        <v>21.61775497985448</v>
+        <v>26.51054501020661</v>
       </c>
       <c r="AC40">
-        <v>40.60002621289405</v>
+        <v>53.02109002041323</v>
       </c>
       <c r="AD40">
-        <v>18.98227123303957</v>
+        <v>26.51054501020661</v>
       </c>
       <c r="AE40">
-        <v>73.3918386733703</v>
+        <v>97.62111623330728</v>
       </c>
       <c r="AF40">
-        <v>15.37327253852459</v>
+        <v>27.55630250076729</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4654,97 +4681,97 @@
         <v>70</v>
       </c>
       <c r="B41">
+        <v>268</v>
+      </c>
+      <c r="C41">
+        <v>276</v>
+      </c>
+      <c r="D41">
+        <v>820</v>
+      </c>
+      <c r="E41">
+        <v>276</v>
+      </c>
+      <c r="F41">
         <v>364</v>
       </c>
-      <c r="C41">
-        <v>284</v>
-      </c>
-      <c r="D41">
-        <v>932</v>
-      </c>
-      <c r="E41">
-        <v>284</v>
-      </c>
-      <c r="F41">
-        <v>284</v>
-      </c>
       <c r="G41">
-        <v>568</v>
+        <v>712</v>
       </c>
       <c r="H41">
-        <v>1424</v>
+        <v>1344</v>
       </c>
       <c r="I41">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="J41">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="K41">
-        <v>856</v>
+        <v>632</v>
       </c>
       <c r="L41">
-        <v>2356</v>
+        <v>2164</v>
       </c>
       <c r="M41">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="N41">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P41">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S41">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T41">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="U41">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="V41">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W41">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="X41">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="Y41">
         <v>13</v>
       </c>
       <c r="Z41">
-        <v>22.3167249841905</v>
+        <v>18.5666024574071</v>
       </c>
       <c r="AA41">
-        <v>44.633449968381</v>
+        <v>39.92908493215828</v>
       </c>
       <c r="AB41">
-        <v>21.14063372513482</v>
+        <v>26.06145247908719</v>
       </c>
       <c r="AC41">
-        <v>41.52084496684643</v>
+        <v>52.12290495817439</v>
       </c>
       <c r="AD41">
-        <v>20.38021124171161</v>
+        <v>26.06145247908719</v>
       </c>
       <c r="AE41">
-        <v>86.15429493522743</v>
+        <v>92.05198989033266</v>
       </c>
       <c r="AF41">
-        <v>22.3167249841905</v>
+        <v>21.36248247475118</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -4755,94 +4782,94 @@
         <v>276</v>
       </c>
       <c r="C42">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D42">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="E42">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F42">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G42">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="H42">
-        <v>1172</v>
+        <v>1296</v>
       </c>
       <c r="I42">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="J42">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="K42">
-        <v>616</v>
+        <v>704</v>
       </c>
       <c r="L42">
-        <v>1992</v>
+        <v>2124</v>
       </c>
       <c r="M42">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+      <c r="P42">
+        <v>29</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
         <v>15</v>
       </c>
-      <c r="O42">
-        <v>4</v>
-      </c>
-      <c r="P42">
-        <v>23</v>
-      </c>
-      <c r="Q42">
-        <v>4</v>
-      </c>
-      <c r="R42">
+      <c r="S42">
         <v>28</v>
-      </c>
-      <c r="S42">
-        <v>42</v>
       </c>
       <c r="T42">
         <v>58</v>
       </c>
       <c r="U42">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="V42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W42">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="X42">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Y42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z42">
-        <v>15.37327253852459</v>
+        <v>20.21441993929574</v>
       </c>
       <c r="AA42">
-        <v>47.17945251250848</v>
+        <v>41.48538743292556</v>
       </c>
       <c r="AB42">
-        <v>28.85733249643127</v>
+        <v>26.31132995230379</v>
       </c>
       <c r="AC42">
-        <v>56.5666024574071</v>
+        <v>49.02599494516633</v>
       </c>
       <c r="AD42">
-        <v>27.70926996097583</v>
+        <v>22.71466499286254</v>
       </c>
       <c r="AE42">
-        <v>103.7460549699156</v>
+        <v>90.51138237809189</v>
       </c>
       <c r="AF42">
-        <v>31.80617997398389</v>
+        <v>21.27096749362983</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -4948,97 +4975,97 @@
         <v>73</v>
       </c>
       <c r="B44">
-        <v>420</v>
+        <v>296</v>
       </c>
       <c r="C44">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="D44">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="E44">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="F44">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="G44">
-        <v>544</v>
+        <v>662</v>
       </c>
       <c r="H44">
-        <v>1488</v>
+        <v>1382</v>
       </c>
       <c r="I44">
-        <v>508</v>
+        <v>336</v>
       </c>
       <c r="J44">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="K44">
-        <v>944</v>
+        <v>720</v>
       </c>
       <c r="L44">
-        <v>2452</v>
+        <v>2282</v>
       </c>
       <c r="M44">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="N44">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P44">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S44">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="T44">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="U44">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="V44">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W44">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="X44">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="Y44">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z44">
-        <v>25.36248247475118</v>
+        <v>23.78845120702346</v>
       </c>
       <c r="AA44">
-        <v>50.72496494950235</v>
+        <v>44.07714746761371</v>
       </c>
       <c r="AB44">
-        <v>19.45939248775923</v>
+        <v>22.51054501020661</v>
       </c>
       <c r="AC44">
-        <v>35.21981497118244</v>
+        <v>47.12290495817439</v>
       </c>
       <c r="AD44">
-        <v>15.76042248342321</v>
+        <v>24.61235994796778</v>
       </c>
       <c r="AE44">
-        <v>85.94477992068479</v>
+        <v>91.2000524257881</v>
       </c>
       <c r="AF44">
-        <v>25.36248247475118</v>
+        <v>20.28869626059026</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -5046,61 +5073,61 @@
         <v>74</v>
       </c>
       <c r="B45">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C45">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D45">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="E45">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F45">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G45">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="H45">
-        <v>1236</v>
+        <v>1316</v>
       </c>
       <c r="I45">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="J45">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="K45">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="L45">
-        <v>2028</v>
+        <v>2152</v>
       </c>
       <c r="M45">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="N45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P45">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S45">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T45">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U45">
         <v>17</v>
@@ -5112,31 +5139,31 @@
         <v>34</v>
       </c>
       <c r="X45">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z45">
-        <v>24.08948120268744</v>
+        <v>25.61235994796778</v>
       </c>
       <c r="AA45">
-        <v>45.11057122310066</v>
+        <v>45.03089986991944</v>
       </c>
       <c r="AB45">
-        <v>25.76042248342321</v>
+        <v>23.33445375115093</v>
       </c>
       <c r="AC45">
-        <v>51.52084496684643</v>
+        <v>46.66890750230186</v>
       </c>
       <c r="AD45">
-        <v>25.76042248342321</v>
+        <v>23.33445375115093</v>
       </c>
       <c r="AE45">
-        <v>96.63141618994709</v>
+        <v>91.6998073722213</v>
       </c>
       <c r="AF45">
-        <v>21.02109002041323</v>
+        <v>19.41853992195166</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -5144,97 +5171,97 @@
         <v>75</v>
       </c>
       <c r="B46">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C46">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D46">
-        <v>828</v>
+        <v>948</v>
       </c>
       <c r="E46">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="F46">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G46">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="H46">
-        <v>1296</v>
+        <v>1472</v>
       </c>
       <c r="I46">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J46">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="K46">
-        <v>704</v>
+        <v>776</v>
       </c>
       <c r="L46">
-        <v>2124</v>
+        <v>2420</v>
       </c>
       <c r="M46">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="N46">
         <v>11</v>
       </c>
       <c r="O46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P46">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R46">
         <v>15</v>
       </c>
       <c r="S46">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T46">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="U46">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="V46">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="W46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="X46">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="Y46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z46">
-        <v>20.21441993929574</v>
+        <v>18.5666024574071</v>
       </c>
       <c r="AA46">
-        <v>41.48538743292556</v>
+        <v>37.1332049148142</v>
       </c>
       <c r="AB46">
-        <v>26.31132995230379</v>
+        <v>23.01569498852652</v>
       </c>
       <c r="AC46">
-        <v>49.02599494516633</v>
+        <v>46.03138997705304</v>
       </c>
       <c r="AD46">
-        <v>22.71466499286254</v>
+        <v>23.01569498852652</v>
       </c>
       <c r="AE46">
-        <v>90.51138237809189</v>
+        <v>83.16459489186724</v>
       </c>
       <c r="AF46">
-        <v>21.27096749362983</v>
+        <v>18.5666024574071</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -5284,55 +5311,55 @@
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q47" t="s">
         <v>102</v>
       </c>
       <c r="R47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="U47" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="V47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="W47" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="X47" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Y47" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Z47" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AA47" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AB47" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AC47" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AD47" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AE47" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AF47" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -5379,58 +5406,58 @@
         <v>101</v>
       </c>
       <c r="O48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P48" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R48" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="S48" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="T48" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="U48" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="V48" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="W48" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="X48" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="Y48" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Z48" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AA48" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="AB48" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AC48" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AD48" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AE48" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AF48" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Chipman Image Analysis.xlsx
+++ b/Chipman Image Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
   <si>
     <t>Continuous 180 degree</t>
   </si>
@@ -109,319 +109,292 @@
     <t>papentine vertical</t>
   </si>
   <si>
+    <t>p1.png</t>
+  </si>
+  <si>
+    <t>p2.png</t>
+  </si>
+  <si>
+    <t>p3.png</t>
+  </si>
+  <si>
+    <t>p4.png</t>
+  </si>
+  <si>
+    <t>p5.png</t>
+  </si>
+  <si>
+    <t>p6.png</t>
+  </si>
+  <si>
+    <t>p7.png</t>
+  </si>
+  <si>
     <t>p8.png</t>
   </si>
   <si>
-    <t>p5.png</t>
-  </si>
-  <si>
-    <t>p6.png</t>
-  </si>
-  <si>
-    <t>p3.png</t>
-  </si>
-  <si>
-    <t>p1.png</t>
-  </si>
-  <si>
     <t>p9.png</t>
   </si>
   <si>
-    <t>p7.png</t>
-  </si>
-  <si>
-    <t>p4.png</t>
-  </si>
-  <si>
-    <t>p2.png</t>
+    <t>p10.png</t>
+  </si>
+  <si>
+    <t>p11.png</t>
+  </si>
+  <si>
+    <t>p12.png</t>
+  </si>
+  <si>
+    <t>p13.png</t>
+  </si>
+  <si>
+    <t>p14.png</t>
+  </si>
+  <si>
+    <t>p15.png</t>
+  </si>
+  <si>
+    <t>p16.png</t>
+  </si>
+  <si>
+    <t>p17.png</t>
+  </si>
+  <si>
+    <t>p18.png</t>
+  </si>
+  <si>
+    <t>p19.png</t>
+  </si>
+  <si>
+    <t>p20.png</t>
+  </si>
+  <si>
+    <t>p21.png</t>
+  </si>
+  <si>
+    <t>p22.png</t>
+  </si>
+  <si>
+    <t>p23.png</t>
+  </si>
+  <si>
+    <t>p24.png</t>
+  </si>
+  <si>
+    <t>p25.png</t>
+  </si>
+  <si>
+    <t>p26.png</t>
   </si>
   <si>
     <t>p27.png</t>
   </si>
   <si>
-    <t>p24.png</t>
-  </si>
-  <si>
-    <t>p21.png</t>
-  </si>
-  <si>
-    <t>p19.png</t>
-  </si>
-  <si>
-    <t>p16.png</t>
-  </si>
-  <si>
-    <t>p13.png</t>
-  </si>
-  <si>
-    <t>p10.png</t>
+    <t>p28.png</t>
+  </si>
+  <si>
+    <t>p29.png</t>
+  </si>
+  <si>
+    <t>p30.png</t>
+  </si>
+  <si>
+    <t>p31.png</t>
+  </si>
+  <si>
+    <t>p32.png</t>
+  </si>
+  <si>
+    <t>p33.png</t>
+  </si>
+  <si>
+    <t>p34.png</t>
+  </si>
+  <si>
+    <t>p35.png</t>
+  </si>
+  <si>
+    <t>p36.png</t>
   </si>
   <si>
     <t>p37.png</t>
   </si>
   <si>
-    <t>p34.png</t>
-  </si>
-  <si>
-    <t>p31.png</t>
-  </si>
-  <si>
-    <t>p29.png</t>
-  </si>
-  <si>
-    <t>p26.png</t>
-  </si>
-  <si>
-    <t>p23.png</t>
-  </si>
-  <si>
-    <t>p20.png</t>
-  </si>
-  <si>
-    <t>p18.png</t>
-  </si>
-  <si>
-    <t>p15.png</t>
-  </si>
-  <si>
-    <t>p12.png</t>
+    <t>p38.png</t>
+  </si>
+  <si>
+    <t>p39.png</t>
+  </si>
+  <si>
+    <t>p40.png</t>
+  </si>
+  <si>
+    <t>p41.png</t>
+  </si>
+  <si>
+    <t>p42.png</t>
+  </si>
+  <si>
+    <t>p43.png</t>
   </si>
   <si>
     <t>p44.png</t>
   </si>
   <si>
-    <t>p41.png</t>
-  </si>
-  <si>
-    <t>p39.png</t>
-  </si>
-  <si>
-    <t>p36.png</t>
-  </si>
-  <si>
-    <t>p33.png</t>
-  </si>
-  <si>
-    <t>p30.png</t>
-  </si>
-  <si>
-    <t>p28.png</t>
-  </si>
-  <si>
-    <t>p25.png</t>
-  </si>
-  <si>
-    <t>p22.png</t>
-  </si>
-  <si>
-    <t>p43.png</t>
-  </si>
-  <si>
-    <t>p40.png</t>
-  </si>
-  <si>
-    <t>p38.png</t>
-  </si>
-  <si>
-    <t>p35.png</t>
-  </si>
-  <si>
-    <t>p32.png</t>
-  </si>
-  <si>
     <t>p45.png</t>
   </si>
   <si>
-    <t>p42.png</t>
-  </si>
-  <si>
-    <t>p17.png</t>
-  </si>
-  <si>
-    <t>p14.png</t>
-  </si>
-  <si>
-    <t>p11.png</t>
-  </si>
-  <si>
     <t>Spearman rho</t>
   </si>
   <si>
     <t>Spearman p value</t>
   </si>
   <si>
-    <t>-0.109</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>-0.198</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>-0.196</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>-0.114</t>
-  </si>
-  <si>
-    <t>0.457</t>
-  </si>
-  <si>
-    <t>-0.057</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>-0.029</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>-0.138</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>-0.117</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>-0.095</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>-0.094</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>-0.038</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>-0.013</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>-0.016</t>
-  </si>
-  <si>
-    <t>0.917</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>0.933</t>
-  </si>
-  <si>
-    <t>-0.089</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t>0.974</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.902</t>
-  </si>
-  <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>0.891</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.121</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t>0.142</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>-0.104</t>
-  </si>
-  <si>
-    <t>0.498</t>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>-0.278</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>-0.178</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>-0.184</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>-0.438</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>-0.393</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>-0.288</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>-0.379</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.519</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.533</t>
+  </si>
+  <si>
+    <t>-0.584</t>
+  </si>
+  <si>
+    <t>-0.831</t>
+  </si>
+  <si>
+    <t>-0.873</t>
+  </si>
+  <si>
+    <t>-0.727</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>-0.086</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>-0.69</t>
+  </si>
+  <si>
+    <t>-0.807</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>-0.036</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>-0.075</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.631</t>
   </si>
 </sst>
 </file>
@@ -859,97 +832,97 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>396</v>
+        <v>280</v>
       </c>
       <c r="C2">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="D2">
-        <v>1220</v>
+        <v>976</v>
       </c>
       <c r="E2">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="F2">
         <v>412</v>
       </c>
       <c r="G2">
-        <v>824</v>
+        <v>734</v>
       </c>
       <c r="H2">
-        <v>1744</v>
+        <v>1486</v>
       </c>
       <c r="I2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="J2">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="K2">
-        <v>920</v>
+        <v>752</v>
       </c>
       <c r="L2">
-        <v>2964</v>
+        <v>2462</v>
       </c>
       <c r="M2">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="Q2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="T2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="U2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W2">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="X2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="Y2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z2">
-        <v>18.5666024574071</v>
+        <v>14.04372371212676</v>
       </c>
       <c r="AA2">
-        <v>37.1332049148142</v>
+        <v>29.41699625065135</v>
       </c>
       <c r="AB2">
-        <v>19.3167249841905</v>
+        <v>19.96993749796584</v>
       </c>
       <c r="AC2">
-        <v>38.633449968381</v>
+        <v>38.68460249082838</v>
       </c>
       <c r="AD2">
-        <v>19.3167249841905</v>
+        <v>18.71466499286254</v>
       </c>
       <c r="AE2">
-        <v>75.7666548831952</v>
+        <v>68.10159874147973</v>
       </c>
       <c r="AF2">
-        <v>18.5666024574071</v>
+        <v>15.37327253852459</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -957,97 +930,97 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>298</v>
+        <v>412</v>
       </c>
       <c r="C3">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D3">
-        <v>862</v>
+        <v>984</v>
       </c>
       <c r="E3">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F3">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="G3">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="H3">
-        <v>1348</v>
+        <v>1498</v>
       </c>
       <c r="I3">
-        <v>368</v>
+        <v>452</v>
       </c>
       <c r="J3">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="K3">
-        <v>742</v>
+        <v>908</v>
       </c>
       <c r="L3">
-        <v>2210</v>
+        <v>2482</v>
       </c>
       <c r="M3">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P3">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="T3">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="U3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="V3">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="W3">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="X3">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="Y3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Z3">
-        <v>23.41363499719856</v>
+        <v>29.33445375115093</v>
       </c>
       <c r="AA3">
-        <v>46.60542124478076</v>
+        <v>56.89075625191822</v>
       </c>
       <c r="AB3">
-        <v>23.45939248775923</v>
+        <v>16.06145247908719</v>
       </c>
       <c r="AC3">
-        <v>45.42393495383837</v>
+        <v>32.80414619554998</v>
       </c>
       <c r="AD3">
-        <v>21.96454246607914</v>
+        <v>16.74269371646278</v>
       </c>
       <c r="AE3">
-        <v>92.02935619861913</v>
+        <v>89.69490244746819</v>
       </c>
       <c r="AF3">
-        <v>23.1917862475822</v>
+        <v>27.55630250076729</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1055,97 +1028,97 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C4">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="D4">
-        <v>930</v>
+        <v>858</v>
       </c>
       <c r="E4">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F4">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="G4">
-        <v>662</v>
+        <v>588</v>
       </c>
       <c r="H4">
-        <v>1424</v>
+        <v>1334</v>
       </c>
       <c r="I4">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="J4">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="K4">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="L4">
-        <v>2354</v>
+        <v>2192</v>
       </c>
       <c r="M4">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>46</v>
+      </c>
+      <c r="U4">
+        <v>21</v>
+      </c>
+      <c r="V4">
         <v>13</v>
       </c>
-      <c r="P4">
-        <v>41</v>
-      </c>
-      <c r="Q4">
-        <v>13</v>
-      </c>
-      <c r="R4">
-        <v>17</v>
-      </c>
-      <c r="S4">
-        <v>33</v>
-      </c>
-      <c r="T4">
-        <v>75</v>
-      </c>
-      <c r="U4">
-        <v>18</v>
-      </c>
-      <c r="V4">
-        <v>24</v>
-      </c>
       <c r="W4">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="X4">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="Y4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <v>17.83960372947084</v>
+        <v>24.36248247475118</v>
       </c>
       <c r="AA4">
-        <v>38.17405748062177</v>
+        <v>50.72496494950235</v>
       </c>
       <c r="AB4">
-        <v>22.36248247475118</v>
+        <v>25.18639121569549</v>
       </c>
       <c r="AC4">
-        <v>45.95220873100541</v>
+        <v>45.94681369911871</v>
       </c>
       <c r="AD4">
-        <v>23.58972625625424</v>
+        <v>20.76042248342321</v>
       </c>
       <c r="AE4">
-        <v>84.12626621162718</v>
+        <v>96.67177864862106</v>
       </c>
       <c r="AF4">
-        <v>20.33445375115093</v>
+        <v>26.36248247475118</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1153,97 +1126,97 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C5">
-        <v>276</v>
+        <v>406</v>
       </c>
       <c r="D5">
-        <v>858</v>
+        <v>1156</v>
       </c>
       <c r="E5">
-        <v>276</v>
+        <v>406</v>
       </c>
       <c r="F5">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="G5">
-        <v>588</v>
+        <v>842</v>
       </c>
       <c r="H5">
-        <v>1334</v>
+        <v>1674</v>
       </c>
       <c r="I5">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="J5">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="K5">
-        <v>746</v>
+        <v>832</v>
       </c>
       <c r="L5">
-        <v>2192</v>
+        <v>2830</v>
       </c>
       <c r="M5">
-        <v>276</v>
+        <v>422</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="P5">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="S5">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="T5">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="U5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="V5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W5">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="X5">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="Y5">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="Z5">
-        <v>24.36248247475118</v>
+        <v>16.17609125905568</v>
       </c>
       <c r="AA5">
-        <v>50.72496494950235</v>
+        <v>31.65321251377534</v>
       </c>
       <c r="AB5">
-        <v>25.18639121569549</v>
+        <v>21.66351247041516</v>
       </c>
       <c r="AC5">
-        <v>45.94681369911871</v>
+        <v>42.42393495383837</v>
       </c>
       <c r="AD5">
         <v>20.76042248342321</v>
       </c>
       <c r="AE5">
-        <v>96.67177864862106</v>
+        <v>74.07714746761371</v>
       </c>
       <c r="AF5">
-        <v>26.36248247475118</v>
+        <v>15.47712125471966</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1251,97 +1224,97 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C6">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="D6">
-        <v>976</v>
+        <v>862</v>
       </c>
       <c r="E6">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="F6">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="G6">
-        <v>734</v>
+        <v>606</v>
       </c>
       <c r="H6">
-        <v>1486</v>
+        <v>1348</v>
       </c>
       <c r="I6">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="J6">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="K6">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="L6">
-        <v>2462</v>
+        <v>2210</v>
       </c>
       <c r="M6">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="N6">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="S6">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="T6">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="U6">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="V6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W6">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="X6">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Y6">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Z6">
-        <v>14.04372371212676</v>
+        <v>23.41363499719856</v>
       </c>
       <c r="AA6">
-        <v>29.41699625065135</v>
+        <v>46.60542124478076</v>
       </c>
       <c r="AB6">
-        <v>19.96993749796584</v>
+        <v>23.45939248775923</v>
       </c>
       <c r="AC6">
-        <v>38.68460249082838</v>
+        <v>45.42393495383837</v>
       </c>
       <c r="AD6">
-        <v>18.71466499286254</v>
+        <v>21.96454246607914</v>
       </c>
       <c r="AE6">
-        <v>68.10159874147973</v>
+        <v>92.02935619861913</v>
       </c>
       <c r="AF6">
-        <v>15.37327253852459</v>
+        <v>23.1917862475822</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1349,97 +1322,97 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C7">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="D7">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="E7">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F7">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="G7">
-        <v>792</v>
+        <v>662</v>
       </c>
       <c r="H7">
-        <v>1384</v>
+        <v>1424</v>
       </c>
       <c r="I7">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="J7">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="K7">
-        <v>592</v>
+        <v>762</v>
       </c>
       <c r="L7">
-        <v>2244</v>
+        <v>2354</v>
       </c>
       <c r="M7">
-        <v>524</v>
+        <v>328</v>
       </c>
       <c r="N7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P7">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R7">
         <v>17</v>
       </c>
       <c r="S7">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="T7">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="X7">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y7">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="Z7">
-        <v>31.80617997398389</v>
+        <v>17.83960372947084</v>
       </c>
       <c r="AA7">
-        <v>42.47508747628575</v>
+        <v>38.17405748062177</v>
       </c>
       <c r="AB7">
-        <v>30.50514997831991</v>
+        <v>22.36248247475118</v>
       </c>
       <c r="AC7">
-        <v>61.01029995663981</v>
+        <v>45.95220873100541</v>
       </c>
       <c r="AD7">
-        <v>30.50514997831991</v>
+        <v>23.58972625625424</v>
       </c>
       <c r="AE7">
-        <v>103.4853874329256</v>
+        <v>84.12626621162718</v>
       </c>
       <c r="AF7">
-        <v>10.66890750230186</v>
+        <v>20.33445375115093</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1545,97 +1518,97 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="C9">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D9">
-        <v>1156</v>
+        <v>1220</v>
       </c>
       <c r="E9">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F9">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G9">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="H9">
-        <v>1674</v>
+        <v>1744</v>
       </c>
       <c r="I9">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="J9">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="K9">
-        <v>832</v>
+        <v>920</v>
       </c>
       <c r="L9">
-        <v>2830</v>
+        <v>2964</v>
       </c>
       <c r="M9">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="S9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="T9">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="U9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W9">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="X9">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="Y9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z9">
-        <v>16.17609125905568</v>
+        <v>18.5666024574071</v>
       </c>
       <c r="AA9">
-        <v>31.65321251377534</v>
+        <v>37.1332049148142</v>
       </c>
       <c r="AB9">
-        <v>21.66351247041516</v>
+        <v>19.3167249841905</v>
       </c>
       <c r="AC9">
-        <v>42.42393495383837</v>
+        <v>38.633449968381</v>
       </c>
       <c r="AD9">
-        <v>20.76042248342321</v>
+        <v>19.3167249841905</v>
       </c>
       <c r="AE9">
-        <v>74.07714746761371</v>
+        <v>75.7666548831952</v>
       </c>
       <c r="AF9">
-        <v>15.47712125471966</v>
+        <v>18.5666024574071</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1643,97 +1616,97 @@
         <v>39</v>
       </c>
       <c r="B10">
-        <v>412</v>
+        <v>268</v>
       </c>
       <c r="C10">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D10">
-        <v>984</v>
+        <v>860</v>
       </c>
       <c r="E10">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F10">
         <v>268</v>
       </c>
       <c r="G10">
-        <v>590</v>
+        <v>792</v>
       </c>
       <c r="H10">
-        <v>1498</v>
+        <v>1384</v>
       </c>
       <c r="I10">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="J10">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="K10">
-        <v>908</v>
+        <v>592</v>
       </c>
       <c r="L10">
-        <v>2482</v>
+        <v>2244</v>
       </c>
       <c r="M10">
-        <v>322</v>
+        <v>524</v>
       </c>
       <c r="N10">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S10">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="T10">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="U10">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="Y10">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z10">
-        <v>29.33445375115093</v>
+        <v>31.80617997398389</v>
       </c>
       <c r="AA10">
-        <v>56.89075625191822</v>
+        <v>42.47508747628575</v>
       </c>
       <c r="AB10">
-        <v>16.06145247908719</v>
+        <v>30.50514997831991</v>
       </c>
       <c r="AC10">
-        <v>32.80414619554998</v>
+        <v>61.01029995663981</v>
       </c>
       <c r="AD10">
-        <v>16.74269371646278</v>
+        <v>30.50514997831991</v>
       </c>
       <c r="AE10">
-        <v>89.69490244746819</v>
+        <v>103.4853874329256</v>
       </c>
       <c r="AF10">
-        <v>27.55630250076729</v>
+        <v>10.66890750230186</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1741,97 +1714,97 @@
         <v>40</v>
       </c>
       <c r="B11">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C11">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D11">
-        <v>908</v>
+        <v>860</v>
       </c>
       <c r="E11">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="F11">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="G11">
-        <v>652</v>
+        <v>544</v>
       </c>
       <c r="H11">
         <v>1376</v>
       </c>
       <c r="I11">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="J11">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="K11">
-        <v>724</v>
+        <v>832</v>
       </c>
       <c r="L11">
-        <v>2284</v>
+        <v>2236</v>
       </c>
       <c r="M11">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P11">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T11">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="U11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V11">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="W11">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="X11">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="Y11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z11">
-        <v>25.11260500153458</v>
+        <v>19.41853992195166</v>
       </c>
       <c r="AA11">
-        <v>45.55426872233338</v>
+        <v>38.83707984390333</v>
       </c>
       <c r="AB11">
-        <v>22.66351247041516</v>
+        <v>20.53857373380686</v>
       </c>
       <c r="AC11">
-        <v>47.02599494516633</v>
+        <v>43.45196367743861</v>
       </c>
       <c r="AD11">
-        <v>24.36248247475118</v>
+        <v>22.91338994363176</v>
       </c>
       <c r="AE11">
-        <v>92.58026366749971</v>
+        <v>82.28904352134194</v>
       </c>
       <c r="AF11">
-        <v>20.4416637207988</v>
+        <v>19.41853992195166</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1839,97 +1812,97 @@
         <v>41</v>
       </c>
       <c r="B12">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C12">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="D12">
-        <v>900</v>
+        <v>948</v>
       </c>
       <c r="E12">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="F12">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G12">
-        <v>634</v>
+        <v>696</v>
       </c>
       <c r="H12">
-        <v>1362</v>
+        <v>1472</v>
       </c>
       <c r="I12">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="J12">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="K12">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="L12">
-        <v>2262</v>
+        <v>2420</v>
       </c>
       <c r="M12">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P12">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>80</v>
+      </c>
+      <c r="U12">
         <v>25</v>
       </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-      <c r="R12">
-        <v>13</v>
-      </c>
-      <c r="S12">
-        <v>24</v>
-      </c>
-      <c r="T12">
-        <v>60</v>
-      </c>
-      <c r="U12">
-        <v>16</v>
-      </c>
       <c r="V12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W12">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X12">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="Y12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z12">
-        <v>22.01569498852652</v>
+        <v>18.5666024574071</v>
       </c>
       <c r="AA12">
-        <v>44.20208620422201</v>
+        <v>37.1332049148142</v>
       </c>
       <c r="AB12">
-        <v>22.70926996097583</v>
+        <v>23.01569498852652</v>
       </c>
       <c r="AC12">
-        <v>46.37278243139099</v>
+        <v>46.03138997705304</v>
       </c>
       <c r="AD12">
-        <v>23.66351247041516</v>
+        <v>23.01569498852652</v>
       </c>
       <c r="AE12">
-        <v>90.574868635613</v>
+        <v>83.16459489186724</v>
       </c>
       <c r="AF12">
-        <v>22.18639121569549</v>
+        <v>18.5666024574071</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1937,49 +1910,49 @@
         <v>42</v>
       </c>
       <c r="B13">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="C13">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D13">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="E13">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F13">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="H13">
-        <v>1342</v>
+        <v>1472</v>
       </c>
       <c r="I13">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="J13">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="K13">
-        <v>696</v>
+        <v>872</v>
       </c>
       <c r="L13">
-        <v>2246</v>
+        <v>2420</v>
       </c>
       <c r="M13">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O13">
         <v>7</v>
       </c>
       <c r="P13">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -1988,46 +1961,46 @@
         <v>11</v>
       </c>
       <c r="S13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T13">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="U13">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="V13">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="W13">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="X13">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="Y13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z13">
-        <v>24.45939248775923</v>
+        <v>25.61235994796778</v>
       </c>
       <c r="AA13">
-        <v>44.04911874401347</v>
+        <v>51.22471989593555</v>
       </c>
       <c r="AB13">
-        <v>25.11260500153458</v>
+        <v>20.85733249643127</v>
       </c>
       <c r="AC13">
-        <v>48.44705875268551</v>
+        <v>41.71466499286254</v>
       </c>
       <c r="AD13">
-        <v>23.33445375115093</v>
+        <v>20.85733249643127</v>
       </c>
       <c r="AE13">
-        <v>92.49617749669898</v>
+        <v>92.93938488879809</v>
       </c>
       <c r="AF13">
-        <v>19.58972625625424</v>
+        <v>25.61235994796778</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2035,97 +2008,97 @@
         <v>43</v>
       </c>
       <c r="B14">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C14">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D14">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="E14">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F14">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="G14">
-        <v>602</v>
+        <v>776</v>
       </c>
       <c r="H14">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="I14">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="J14">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="K14">
-        <v>778</v>
+        <v>608</v>
       </c>
       <c r="L14">
-        <v>2282</v>
+        <v>2244</v>
       </c>
       <c r="M14">
-        <v>304</v>
+        <v>524</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P14">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R14">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S14">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="T14">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="U14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="X14">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="Z14">
-        <v>24.66351247041516</v>
+        <v>23.41853992195166</v>
       </c>
       <c r="AA14">
-        <v>49.17405748062177</v>
+        <v>34.08744742425353</v>
       </c>
       <c r="AB14">
-        <v>23.40823996531185</v>
+        <v>23.51544993495972</v>
       </c>
       <c r="AC14">
-        <v>43.49772116799929</v>
+        <v>47.03089986991944</v>
       </c>
       <c r="AD14">
-        <v>20.08948120268744</v>
+        <v>23.51544993495972</v>
       </c>
       <c r="AE14">
-        <v>92.67177864862106</v>
+        <v>81.11834729417296</v>
       </c>
       <c r="AF14">
-        <v>24.51054501020661</v>
+        <v>10.66890750230186</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2133,97 +2106,97 @@
         <v>44</v>
       </c>
       <c r="B15">
+        <v>280</v>
+      </c>
+      <c r="C15">
         <v>278</v>
       </c>
-      <c r="C15">
-        <v>280</v>
-      </c>
       <c r="D15">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E15">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F15">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G15">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H15">
-        <v>1236</v>
+        <v>1316</v>
       </c>
       <c r="I15">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="J15">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="K15">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="L15">
-        <v>2074</v>
+        <v>2152</v>
       </c>
       <c r="M15">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="T15">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="U15">
+        <v>17</v>
+      </c>
+      <c r="V15">
+        <v>17</v>
+      </c>
+      <c r="W15">
+        <v>34</v>
+      </c>
+      <c r="X15">
+        <v>91</v>
+      </c>
+      <c r="Y15">
         <v>16</v>
       </c>
-      <c r="V15">
-        <v>11</v>
-      </c>
-      <c r="W15">
-        <v>27</v>
-      </c>
-      <c r="X15">
-        <v>42</v>
-      </c>
-      <c r="Y15">
-        <v>6</v>
-      </c>
       <c r="Z15">
-        <v>26.36248247475118</v>
+        <v>25.61235994796778</v>
       </c>
       <c r="AA15">
-        <v>49.62805493649429</v>
+        <v>45.03089986991944</v>
       </c>
       <c r="AB15">
-        <v>27.28330122870355</v>
+        <v>23.33445375115093</v>
       </c>
       <c r="AC15">
-        <v>51.52084496684643</v>
+        <v>46.66890750230186</v>
       </c>
       <c r="AD15">
-        <v>24.23754373814288</v>
+        <v>23.33445375115093</v>
       </c>
       <c r="AE15">
-        <v>101.1488999033407</v>
+        <v>91.6998073722213</v>
       </c>
       <c r="AF15">
-        <v>23.26557246174312</v>
+        <v>19.41853992195166</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2231,97 +2204,97 @@
         <v>45</v>
       </c>
       <c r="B16">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="C16">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="D16">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="E16">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F16">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="G16">
-        <v>776</v>
+        <v>536</v>
       </c>
       <c r="H16">
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="I16">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="J16">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="K16">
-        <v>608</v>
+        <v>856</v>
       </c>
       <c r="L16">
-        <v>2244</v>
+        <v>2260</v>
       </c>
       <c r="M16">
-        <v>524</v>
+        <v>268</v>
       </c>
       <c r="N16">
         <v>19</v>
       </c>
       <c r="O16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P16">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="S16">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="T16">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="U16">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="V16">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="W16">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="X16">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="Y16">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Z16">
-        <v>23.41853992195166</v>
+        <v>25.61235994796778</v>
       </c>
       <c r="AA16">
-        <v>34.08744742425353</v>
+        <v>51.22471989593555</v>
       </c>
       <c r="AB16">
-        <v>23.51544993495972</v>
+        <v>20.78845120702346</v>
       </c>
       <c r="AC16">
-        <v>47.03089986991944</v>
+        <v>41.57690241404691</v>
       </c>
       <c r="AD16">
-        <v>23.51544993495972</v>
+        <v>20.78845120702346</v>
       </c>
       <c r="AE16">
-        <v>81.11834729417296</v>
+        <v>92.80162230998246</v>
       </c>
       <c r="AF16">
-        <v>10.66890750230186</v>
+        <v>25.61235994796778</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2329,97 +2302,97 @@
         <v>46</v>
       </c>
       <c r="B17">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C17">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D17">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="E17">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F17">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G17">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="H17">
-        <v>1376</v>
+        <v>1236</v>
       </c>
       <c r="I17">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="J17">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="K17">
-        <v>832</v>
+        <v>658</v>
       </c>
       <c r="L17">
-        <v>2236</v>
+        <v>2074</v>
       </c>
       <c r="M17">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="N17">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="T17">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="U17">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V17">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="W17">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="X17">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="Y17">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Z17">
-        <v>19.41853992195166</v>
+        <v>26.36248247475118</v>
       </c>
       <c r="AA17">
-        <v>38.83707984390333</v>
+        <v>49.62805493649429</v>
       </c>
       <c r="AB17">
-        <v>20.53857373380686</v>
+        <v>27.28330122870355</v>
       </c>
       <c r="AC17">
-        <v>43.45196367743861</v>
+        <v>51.52084496684643</v>
       </c>
       <c r="AD17">
-        <v>22.91338994363176</v>
+        <v>24.23754373814288</v>
       </c>
       <c r="AE17">
-        <v>82.28904352134194</v>
+        <v>101.1488999033407</v>
       </c>
       <c r="AF17">
-        <v>19.41853992195166</v>
+        <v>23.26557246174312</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2427,97 +2400,97 @@
         <v>47</v>
       </c>
       <c r="B18">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C18">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D18">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="E18">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F18">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="G18">
-        <v>728</v>
+        <v>662</v>
       </c>
       <c r="H18">
-        <v>1320</v>
+        <v>1382</v>
       </c>
       <c r="I18">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="J18">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="K18">
-        <v>592</v>
+        <v>720</v>
       </c>
       <c r="L18">
-        <v>2180</v>
+        <v>2282</v>
       </c>
       <c r="M18">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18">
         <v>7</v>
       </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
       <c r="P18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R18">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="S18">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="T18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V18">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="W18">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="X18">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z18">
-        <v>21.36248247475118</v>
+        <v>23.78845120702346</v>
       </c>
       <c r="AA18">
-        <v>43.32702494083031</v>
+        <v>44.07714746761371</v>
       </c>
       <c r="AB18">
-        <v>27.45939248775923</v>
+        <v>22.51054501020661</v>
       </c>
       <c r="AC18">
-        <v>54.91878497551846</v>
+        <v>47.12290495817439</v>
       </c>
       <c r="AD18">
-        <v>27.45939248775923</v>
+        <v>24.61235994796778</v>
       </c>
       <c r="AE18">
-        <v>98.24580991634878</v>
+        <v>91.2000524257881</v>
       </c>
       <c r="AF18">
-        <v>21.96454246607914</v>
+        <v>20.28869626059026</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2525,97 +2498,97 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C19">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D19">
-        <v>894</v>
+        <v>850</v>
       </c>
       <c r="E19">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F19">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="G19">
-        <v>736</v>
+        <v>614</v>
       </c>
       <c r="H19">
-        <v>1402</v>
+        <v>1328</v>
       </c>
       <c r="I19">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="J19">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K19">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="L19">
-        <v>2296</v>
+        <v>2178</v>
       </c>
       <c r="M19">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="N19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="T19">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="U19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X19">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="Y19">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Z19">
-        <v>27.55630250076729</v>
+        <v>24.58433122436753</v>
       </c>
       <c r="AA19">
-        <v>46.32212001607721</v>
+        <v>48.24784369478269</v>
       </c>
       <c r="AB19">
-        <v>27.80617997398389</v>
+        <v>24.28330122870355</v>
       </c>
       <c r="AC19">
-        <v>56.36248247475118</v>
+        <v>47.61775497985448</v>
       </c>
       <c r="AD19">
-        <v>28.55630250076729</v>
+        <v>23.33445375115093</v>
       </c>
       <c r="AE19">
-        <v>102.6846024908284</v>
+        <v>95.86559867463717</v>
       </c>
       <c r="AF19">
-        <v>18.76581751530992</v>
+        <v>23.66351247041516</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2623,97 +2596,97 @@
         <v>49</v>
       </c>
       <c r="B20">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C20">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="D20">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="E20">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F20">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="G20">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="H20">
-        <v>1408</v>
+        <v>1380</v>
       </c>
       <c r="I20">
-        <v>524</v>
+        <v>408</v>
       </c>
       <c r="J20">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K20">
-        <v>864</v>
+        <v>778</v>
       </c>
       <c r="L20">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="M20">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="N20">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P20">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T20">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="U20">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="V20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W20">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X20">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z20">
-        <v>29.01029995663981</v>
+        <v>24.66351247041516</v>
       </c>
       <c r="AA20">
-        <v>58.02059991327963</v>
+        <v>49.17405748062177</v>
       </c>
       <c r="AB20">
-        <v>27.70926996097583</v>
+        <v>23.40823996531185</v>
       </c>
       <c r="AC20">
-        <v>41.64578370345473</v>
+        <v>43.49772116799929</v>
       </c>
       <c r="AD20">
-        <v>13.93651374247889</v>
+        <v>20.08948120268744</v>
       </c>
       <c r="AE20">
-        <v>99.66638361673435</v>
+        <v>92.67177864862106</v>
       </c>
       <c r="AF20">
-        <v>29.01029995663981</v>
+        <v>24.51054501020661</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2721,97 +2694,97 @@
         <v>50</v>
       </c>
       <c r="B21">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C21">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D21">
-        <v>868</v>
+        <v>814</v>
       </c>
       <c r="E21">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="F21">
+        <v>302</v>
+      </c>
+      <c r="G21">
+        <v>592</v>
+      </c>
+      <c r="H21">
+        <v>1222</v>
+      </c>
+      <c r="I21">
+        <v>314</v>
+      </c>
+      <c r="J21">
         <v>316</v>
       </c>
-      <c r="G21">
-        <v>638</v>
-      </c>
-      <c r="H21">
-        <v>1322</v>
-      </c>
-      <c r="I21">
-        <v>356</v>
-      </c>
-      <c r="J21">
-        <v>328</v>
-      </c>
       <c r="K21">
-        <v>684</v>
+        <v>630</v>
       </c>
       <c r="L21">
-        <v>2190</v>
+        <v>2036</v>
       </c>
       <c r="M21">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
         <v>11</v>
       </c>
-      <c r="O21">
-        <v>8</v>
-      </c>
-      <c r="P21">
-        <v>27</v>
-      </c>
       <c r="Q21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S21">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="T21">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="U21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W21">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X21">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="Y21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z21">
-        <v>23.06145247908719</v>
+        <v>23.88536122003151</v>
       </c>
       <c r="AA21">
-        <v>44.77611747194973</v>
+        <v>48.54887369044667</v>
       </c>
       <c r="AB21">
-        <v>22.3167249841905</v>
+        <v>25.23754373814288</v>
       </c>
       <c r="AC21">
-        <v>45.10517619121396</v>
+        <v>50.60002621289405</v>
       </c>
       <c r="AD21">
-        <v>22.78845120702346</v>
+        <v>25.36248247475118</v>
       </c>
       <c r="AE21">
-        <v>89.88129366316369</v>
+        <v>99.14889990334072</v>
       </c>
       <c r="AF21">
-        <v>21.71466499286254</v>
+        <v>24.66351247041516</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2819,97 +2792,97 @@
         <v>51</v>
       </c>
       <c r="B22">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C22">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D22">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E22">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F22">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G22">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="H22">
-        <v>1380</v>
+        <v>1342</v>
       </c>
       <c r="I22">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="J22">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K22">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="L22">
-        <v>2264</v>
+        <v>2246</v>
       </c>
       <c r="M22">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O22">
         <v>7</v>
       </c>
       <c r="P22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q22">
         <v>7</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T22">
         <v>54</v>
       </c>
       <c r="U22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="X22">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z22">
-        <v>21.23754373814288</v>
+        <v>24.45939248775923</v>
       </c>
       <c r="AA22">
-        <v>42.37817746327769</v>
+        <v>44.04911874401347</v>
       </c>
       <c r="AB22">
-        <v>23.01569498852652</v>
+        <v>25.11260500153458</v>
       </c>
       <c r="AC22">
-        <v>46.37817746327769</v>
+        <v>48.44705875268551</v>
       </c>
       <c r="AD22">
-        <v>23.36248247475118</v>
+        <v>23.33445375115093</v>
       </c>
       <c r="AE22">
-        <v>88.75635492655539</v>
+        <v>92.49617749669898</v>
       </c>
       <c r="AF22">
-        <v>21.14063372513482</v>
+        <v>19.58972625625424</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -2917,97 +2890,97 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C23">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D23">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="E23">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F23">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G23">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="H23">
-        <v>1364</v>
+        <v>1294</v>
       </c>
       <c r="I23">
+        <v>314</v>
+      </c>
+      <c r="J23">
+        <v>360</v>
+      </c>
+      <c r="K23">
+        <v>674</v>
+      </c>
+      <c r="L23">
+        <v>2120</v>
+      </c>
+      <c r="M23">
         <v>338</v>
       </c>
-      <c r="J23">
-        <v>356</v>
-      </c>
-      <c r="K23">
-        <v>694</v>
-      </c>
-      <c r="L23">
-        <v>2230</v>
-      </c>
-      <c r="M23">
-        <v>374</v>
-      </c>
       <c r="N23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T23">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U23">
+        <v>12</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>32</v>
+      </c>
+      <c r="X23">
+        <v>64</v>
+      </c>
+      <c r="Y23">
         <v>10</v>
       </c>
-      <c r="V23">
-        <v>16</v>
-      </c>
-      <c r="W23">
-        <v>26</v>
-      </c>
-      <c r="X23">
-        <v>70</v>
-      </c>
-      <c r="Y23">
-        <v>17</v>
-      </c>
       <c r="Z23">
-        <v>26.48742121135948</v>
+        <v>25.83960372947084</v>
       </c>
       <c r="AA23">
-        <v>45.20208620422201</v>
+        <v>49.02599494516633</v>
       </c>
       <c r="AB23">
-        <v>23.58433122436753</v>
+        <v>21.4416637207988</v>
       </c>
       <c r="AC23">
-        <v>51.6915411940154</v>
+        <v>47.50311619988599</v>
       </c>
       <c r="AD23">
-        <v>28.10720996964787</v>
+        <v>26.06145247908719</v>
       </c>
       <c r="AE23">
-        <v>96.89362739823741</v>
+        <v>96.52911114505233</v>
       </c>
       <c r="AF23">
-        <v>18.71466499286254</v>
+        <v>23.18639121569549</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3015,97 +2988,97 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="C24">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D24">
-        <v>814</v>
+        <v>866</v>
       </c>
       <c r="E24">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F24">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G24">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="H24">
-        <v>1222</v>
+        <v>1364</v>
       </c>
       <c r="I24">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="J24">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="K24">
-        <v>630</v>
+        <v>694</v>
       </c>
       <c r="L24">
-        <v>2036</v>
+        <v>2230</v>
       </c>
       <c r="M24">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
         <v>5</v>
       </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
       <c r="P24">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T24">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="U24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X24">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Y24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Z24">
-        <v>23.88536122003151</v>
+        <v>26.48742121135948</v>
       </c>
       <c r="AA24">
-        <v>48.54887369044667</v>
+        <v>45.20208620422201</v>
       </c>
       <c r="AB24">
-        <v>25.23754373814288</v>
+        <v>23.58433122436753</v>
       </c>
       <c r="AC24">
-        <v>50.60002621289405</v>
+        <v>51.6915411940154</v>
       </c>
       <c r="AD24">
-        <v>25.36248247475118</v>
+        <v>28.10720996964787</v>
       </c>
       <c r="AE24">
-        <v>99.14889990334072</v>
+        <v>96.89362739823741</v>
       </c>
       <c r="AF24">
-        <v>24.66351247041516</v>
+        <v>18.71466499286254</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3113,97 +3086,97 @@
         <v>54</v>
       </c>
       <c r="B25">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D25">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E25">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="F25">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="G25">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="H25">
-        <v>1328</v>
+        <v>1362</v>
       </c>
       <c r="I25">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="J25">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="K25">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="L25">
-        <v>2178</v>
+        <v>2262</v>
       </c>
       <c r="M25">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P25">
+        <v>25</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
         <v>13</v>
       </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25">
-        <v>5</v>
-      </c>
       <c r="S25">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="T25">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="U25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W25">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="X25">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="Y25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z25">
-        <v>24.58433122436753</v>
+        <v>22.01569498852652</v>
       </c>
       <c r="AA25">
-        <v>48.24784369478269</v>
+        <v>44.20208620422201</v>
       </c>
       <c r="AB25">
-        <v>24.28330122870355</v>
+        <v>22.70926996097583</v>
       </c>
       <c r="AC25">
-        <v>47.61775497985448</v>
+        <v>46.37278243139099</v>
       </c>
       <c r="AD25">
-        <v>23.33445375115093</v>
+        <v>23.66351247041516</v>
       </c>
       <c r="AE25">
-        <v>95.86559867463717</v>
+        <v>90.574868635613</v>
       </c>
       <c r="AF25">
-        <v>23.66351247041516</v>
+        <v>22.18639121569549</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3211,97 +3184,97 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="C26">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D26">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="E26">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F26">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G26">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="H26">
-        <v>1392</v>
+        <v>1322</v>
       </c>
       <c r="I26">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="J26">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="K26">
-        <v>856</v>
+        <v>710</v>
       </c>
       <c r="L26">
-        <v>2260</v>
+        <v>2176</v>
       </c>
       <c r="M26">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="N26">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P26">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <v>22</v>
       </c>
       <c r="T26">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="U26">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="V26">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W26">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="X26">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="Y26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z26">
-        <v>25.61235994796778</v>
+        <v>22.61775497985448</v>
       </c>
       <c r="AA26">
-        <v>51.22471989593555</v>
+        <v>47.57199748929381</v>
       </c>
       <c r="AB26">
-        <v>20.78845120702346</v>
+        <v>20.5666024574071</v>
       </c>
       <c r="AC26">
-        <v>41.57690241404691</v>
+        <v>44.92908493215828</v>
       </c>
       <c r="AD26">
-        <v>20.78845120702346</v>
+        <v>24.36248247475118</v>
       </c>
       <c r="AE26">
-        <v>92.80162230998246</v>
+        <v>92.50108242145208</v>
       </c>
       <c r="AF26">
-        <v>25.61235994796778</v>
+        <v>24.95424250943933</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3309,97 +3282,97 @@
         <v>56</v>
       </c>
       <c r="B27">
+        <v>268</v>
+      </c>
+      <c r="C27">
+        <v>308</v>
+      </c>
+      <c r="D27">
+        <v>884</v>
+      </c>
+      <c r="E27">
+        <v>308</v>
+      </c>
+      <c r="F27">
+        <v>316</v>
+      </c>
+      <c r="G27">
+        <v>664</v>
+      </c>
+      <c r="H27">
+        <v>1380</v>
+      </c>
+      <c r="I27">
+        <v>382</v>
+      </c>
+      <c r="J27">
+        <v>334</v>
+      </c>
+      <c r="K27">
+        <v>716</v>
+      </c>
+      <c r="L27">
+        <v>2264</v>
+      </c>
+      <c r="M27">
         <v>348</v>
       </c>
-      <c r="C27">
-        <v>300</v>
-      </c>
-      <c r="D27">
-        <v>948</v>
-      </c>
-      <c r="E27">
-        <v>300</v>
-      </c>
-      <c r="F27">
-        <v>300</v>
-      </c>
-      <c r="G27">
-        <v>600</v>
-      </c>
-      <c r="H27">
-        <v>1472</v>
-      </c>
-      <c r="I27">
-        <v>436</v>
-      </c>
-      <c r="J27">
-        <v>436</v>
-      </c>
-      <c r="K27">
-        <v>872</v>
-      </c>
-      <c r="L27">
-        <v>2420</v>
-      </c>
-      <c r="M27">
-        <v>300</v>
-      </c>
       <c r="N27">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O27">
         <v>7</v>
       </c>
       <c r="P27">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q27">
         <v>7</v>
       </c>
       <c r="R27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T27">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="U27">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V27">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="W27">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="X27">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y27">
         <v>11</v>
       </c>
       <c r="Z27">
-        <v>25.61235994796778</v>
+        <v>21.23754373814288</v>
       </c>
       <c r="AA27">
-        <v>51.22471989593555</v>
+        <v>42.37817746327769</v>
       </c>
       <c r="AB27">
-        <v>20.85733249643127</v>
+        <v>23.01569498852652</v>
       </c>
       <c r="AC27">
-        <v>41.71466499286254</v>
+        <v>46.37817746327769</v>
       </c>
       <c r="AD27">
-        <v>20.85733249643127</v>
+        <v>23.36248247475118</v>
       </c>
       <c r="AE27">
-        <v>92.93938488879809</v>
+        <v>88.75635492655539</v>
       </c>
       <c r="AF27">
-        <v>25.61235994796778</v>
+        <v>21.14063372513482</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3407,97 +3380,97 @@
         <v>57</v>
       </c>
       <c r="B28">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="C28">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D28">
-        <v>792</v>
+        <v>908</v>
       </c>
       <c r="E28">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="F28">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G28">
-        <v>544</v>
+        <v>652</v>
       </c>
       <c r="H28">
-        <v>1236</v>
+        <v>1376</v>
       </c>
       <c r="I28">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="J28">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="K28">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="L28">
-        <v>2028</v>
+        <v>2284</v>
       </c>
       <c r="M28">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P28">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R28">
+        <v>13</v>
+      </c>
+      <c r="S28">
+        <v>29</v>
+      </c>
+      <c r="T28">
+        <v>63</v>
+      </c>
+      <c r="U28">
         <v>15</v>
       </c>
-      <c r="S28">
-        <v>32</v>
-      </c>
-      <c r="T28">
-        <v>66</v>
-      </c>
-      <c r="U28">
-        <v>17</v>
-      </c>
       <c r="V28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W28">
         <v>34</v>
       </c>
       <c r="X28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z28">
-        <v>24.08948120268744</v>
+        <v>25.11260500153458</v>
       </c>
       <c r="AA28">
-        <v>45.11057122310066</v>
+        <v>45.55426872233338</v>
       </c>
       <c r="AB28">
-        <v>25.76042248342321</v>
+        <v>22.66351247041516</v>
       </c>
       <c r="AC28">
-        <v>51.52084496684643</v>
+        <v>47.02599494516633</v>
       </c>
       <c r="AD28">
-        <v>25.76042248342321</v>
+        <v>24.36248247475118</v>
       </c>
       <c r="AE28">
-        <v>96.63141618994709</v>
+        <v>92.58026366749971</v>
       </c>
       <c r="AF28">
-        <v>21.02109002041323</v>
+        <v>20.4416637207988</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3505,97 +3478,97 @@
         <v>58</v>
       </c>
       <c r="B29">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C29">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D29">
-        <v>820</v>
+        <v>880</v>
       </c>
       <c r="E29">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="F29">
+        <v>310</v>
+      </c>
+      <c r="G29">
+        <v>610</v>
+      </c>
+      <c r="H29">
+        <v>1290</v>
+      </c>
+      <c r="I29">
+        <v>358</v>
+      </c>
+      <c r="J29">
+        <v>322</v>
+      </c>
+      <c r="K29">
+        <v>680</v>
+      </c>
+      <c r="L29">
+        <v>2170</v>
+      </c>
+      <c r="M29">
         <v>300</v>
       </c>
-      <c r="G29">
-        <v>556</v>
-      </c>
-      <c r="H29">
-        <v>1172</v>
-      </c>
-      <c r="I29">
-        <v>316</v>
-      </c>
-      <c r="J29">
-        <v>300</v>
-      </c>
-      <c r="K29">
-        <v>616</v>
-      </c>
-      <c r="L29">
-        <v>1992</v>
-      </c>
-      <c r="M29">
-        <v>256</v>
-      </c>
       <c r="N29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>14</v>
+      </c>
+      <c r="S29">
         <v>23</v>
       </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-      <c r="R29">
+      <c r="T29">
+        <v>51</v>
+      </c>
+      <c r="U29">
+        <v>19</v>
+      </c>
+      <c r="V29">
+        <v>9</v>
+      </c>
+      <c r="W29">
         <v>28</v>
       </c>
-      <c r="S29">
-        <v>42</v>
-      </c>
-      <c r="T29">
-        <v>58</v>
-      </c>
-      <c r="U29">
+      <c r="X29">
+        <v>70</v>
+      </c>
+      <c r="Y29">
         <v>9</v>
       </c>
-      <c r="V29">
-        <v>7</v>
-      </c>
-      <c r="W29">
-        <v>16</v>
-      </c>
-      <c r="X29">
-        <v>81</v>
-      </c>
-      <c r="Y29">
-        <v>14</v>
-      </c>
       <c r="Z29">
-        <v>15.37327253852459</v>
+        <v>22.93651374247889</v>
       </c>
       <c r="AA29">
-        <v>47.17945251250848</v>
+        <v>47.77611747194973</v>
       </c>
       <c r="AB29">
-        <v>28.85733249643127</v>
+        <v>27.98227123303957</v>
       </c>
       <c r="AC29">
-        <v>56.5666024574071</v>
+        <v>50.4416637207988</v>
       </c>
       <c r="AD29">
-        <v>27.70926996097583</v>
+        <v>22.45939248775923</v>
       </c>
       <c r="AE29">
-        <v>103.7460549699156</v>
+        <v>98.21778119274853</v>
       </c>
       <c r="AF29">
-        <v>31.80617997398389</v>
+        <v>24.83960372947084</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3603,97 +3576,97 @@
         <v>59</v>
       </c>
       <c r="B30">
+        <v>272</v>
+      </c>
+      <c r="C30">
+        <v>298</v>
+      </c>
+      <c r="D30">
+        <v>868</v>
+      </c>
+      <c r="E30">
+        <v>298</v>
+      </c>
+      <c r="F30">
+        <v>316</v>
+      </c>
+      <c r="G30">
+        <v>638</v>
+      </c>
+      <c r="H30">
+        <v>1322</v>
+      </c>
+      <c r="I30">
         <v>356</v>
       </c>
-      <c r="C30">
-        <v>316</v>
-      </c>
-      <c r="D30">
-        <v>988</v>
-      </c>
-      <c r="E30">
-        <v>316</v>
-      </c>
-      <c r="F30">
-        <v>300</v>
-      </c>
-      <c r="G30">
-        <v>668</v>
-      </c>
-      <c r="H30">
-        <v>1472</v>
-      </c>
-      <c r="I30">
-        <v>436</v>
-      </c>
       <c r="J30">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="K30">
-        <v>804</v>
+        <v>684</v>
       </c>
       <c r="L30">
-        <v>2460</v>
+        <v>2190</v>
       </c>
       <c r="M30">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="N30">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O30">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="S30">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="T30">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="U30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="V30">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W30">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="X30">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="Y30">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Z30">
-        <v>17.41853992195166</v>
+        <v>23.06145247908719</v>
       </c>
       <c r="AA30">
-        <v>32.79181246047625</v>
+        <v>44.77611747194973</v>
       </c>
       <c r="AB30">
-        <v>21.61775497985448</v>
+        <v>22.3167249841905</v>
       </c>
       <c r="AC30">
-        <v>40.60002621289405</v>
+        <v>45.10517619121396</v>
       </c>
       <c r="AD30">
-        <v>18.98227123303957</v>
+        <v>22.78845120702346</v>
       </c>
       <c r="AE30">
-        <v>73.3918386733703</v>
+        <v>89.88129366316369</v>
       </c>
       <c r="AF30">
-        <v>15.37327253852459</v>
+        <v>21.71466499286254</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3701,97 +3674,97 @@
         <v>60</v>
       </c>
       <c r="B31">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="C31">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D31">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="E31">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F31">
+        <v>306</v>
+      </c>
+      <c r="G31">
+        <v>626</v>
+      </c>
+      <c r="H31">
+        <v>1362</v>
+      </c>
+      <c r="I31">
         <v>364</v>
       </c>
-      <c r="G31">
-        <v>728</v>
-      </c>
-      <c r="H31">
-        <v>1408</v>
-      </c>
-      <c r="I31">
-        <v>340</v>
-      </c>
       <c r="J31">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="K31">
-        <v>680</v>
+        <v>736</v>
       </c>
       <c r="L31">
-        <v>2292</v>
+        <v>2278</v>
       </c>
       <c r="M31">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="N31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S31">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T31">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="U31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="W31">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="X31">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="Y31">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z31">
-        <v>21.96454246607914</v>
+        <v>24.45939248775923</v>
       </c>
       <c r="AA31">
-        <v>43.92908493215828</v>
+        <v>48.04911874401347</v>
       </c>
       <c r="AB31">
-        <v>26.31132995230379</v>
+        <v>24.10720996964787</v>
       </c>
       <c r="AC31">
-        <v>52.62265990460759</v>
+        <v>47.46969244439904</v>
       </c>
       <c r="AD31">
-        <v>26.31132995230379</v>
+        <v>23.36248247475118</v>
       </c>
       <c r="AE31">
-        <v>96.55174483676586</v>
+        <v>95.51881118841251</v>
       </c>
       <c r="AF31">
-        <v>21.96454246607914</v>
+        <v>23.58972625625424</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3799,97 +3772,97 @@
         <v>61</v>
       </c>
       <c r="B32">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="C32">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="D32">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="E32">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F32">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="G32">
-        <v>734</v>
+        <v>544</v>
       </c>
       <c r="H32">
-        <v>1354</v>
+        <v>1408</v>
       </c>
       <c r="I32">
-        <v>314</v>
+        <v>524</v>
       </c>
       <c r="J32">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="K32">
-        <v>620</v>
+        <v>864</v>
       </c>
       <c r="L32">
-        <v>2226</v>
+        <v>2292</v>
       </c>
       <c r="M32">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="N32">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W32">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="X32">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y32">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>27.55630250076729</v>
+        <v>29.01029995663981</v>
       </c>
       <c r="AA32">
-        <v>41.60002621289405</v>
+        <v>58.02059991327963</v>
       </c>
       <c r="AB32">
-        <v>28.85733249643127</v>
+        <v>27.70926996097583</v>
       </c>
       <c r="AC32">
-        <v>57.01569498852652</v>
+        <v>41.64578370345473</v>
       </c>
       <c r="AD32">
-        <v>28.15836249209525</v>
+        <v>13.93651374247889</v>
       </c>
       <c r="AE32">
-        <v>98.61572120142057</v>
+        <v>99.66638361673435</v>
       </c>
       <c r="AF32">
-        <v>14.04372371212676</v>
+        <v>29.01029995663981</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -3897,97 +3870,97 @@
         <v>62</v>
       </c>
       <c r="B33">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="C33">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D33">
-        <v>916</v>
+        <v>820</v>
       </c>
       <c r="E33">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F33">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="G33">
-        <v>626</v>
+        <v>712</v>
       </c>
       <c r="H33">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="I33">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="J33">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="K33">
-        <v>736</v>
+        <v>632</v>
       </c>
       <c r="L33">
-        <v>2278</v>
+        <v>2164</v>
       </c>
       <c r="M33">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="N33">
         <v>9</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P33">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R33">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S33">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="T33">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="U33">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="V33">
         <v>14</v>
       </c>
       <c r="W33">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="X33">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Y33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z33">
-        <v>24.45939248775923</v>
+        <v>18.5666024574071</v>
       </c>
       <c r="AA33">
-        <v>48.04911874401347</v>
+        <v>39.92908493215828</v>
       </c>
       <c r="AB33">
-        <v>24.10720996964787</v>
+        <v>26.06145247908719</v>
       </c>
       <c r="AC33">
-        <v>47.46969244439904</v>
+        <v>52.12290495817439</v>
       </c>
       <c r="AD33">
-        <v>23.36248247475118</v>
+        <v>26.06145247908719</v>
       </c>
       <c r="AE33">
-        <v>95.51881118841251</v>
+        <v>92.05198989033266</v>
       </c>
       <c r="AF33">
-        <v>23.58972625625424</v>
+        <v>21.36248247475118</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -3995,97 +3968,97 @@
         <v>63</v>
       </c>
       <c r="B34">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C34">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D34">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="E34">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F34">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="G34">
-        <v>610</v>
+        <v>734</v>
       </c>
       <c r="H34">
-        <v>1290</v>
+        <v>1354</v>
       </c>
       <c r="I34">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="J34">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="K34">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="L34">
-        <v>2170</v>
+        <v>2226</v>
       </c>
       <c r="M34">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O34">
         <v>5</v>
       </c>
       <c r="P34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q34">
         <v>5</v>
       </c>
       <c r="R34">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="S34">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="T34">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="V34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W34">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="X34">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="Y34">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="Z34">
-        <v>22.93651374247889</v>
+        <v>27.55630250076729</v>
       </c>
       <c r="AA34">
-        <v>47.77611747194973</v>
+        <v>41.60002621289405</v>
       </c>
       <c r="AB34">
-        <v>27.98227123303957</v>
+        <v>28.85733249643127</v>
       </c>
       <c r="AC34">
-        <v>50.4416637207988</v>
+        <v>57.01569498852652</v>
       </c>
       <c r="AD34">
-        <v>22.45939248775923</v>
+        <v>28.15836249209525</v>
       </c>
       <c r="AE34">
-        <v>98.21778119274853</v>
+        <v>98.61572120142057</v>
       </c>
       <c r="AF34">
-        <v>24.83960372947084</v>
+        <v>14.04372371212676</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4093,97 +4066,97 @@
         <v>64</v>
       </c>
       <c r="B35">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C35">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D35">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="E35">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F35">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="G35">
-        <v>612</v>
+        <v>736</v>
       </c>
       <c r="H35">
-        <v>1322</v>
+        <v>1402</v>
       </c>
       <c r="I35">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J35">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="K35">
-        <v>710</v>
+        <v>666</v>
       </c>
       <c r="L35">
-        <v>2176</v>
+        <v>2296</v>
       </c>
       <c r="M35">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="N35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P35">
         <v>20</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="S35">
+        <v>42</v>
+      </c>
+      <c r="T35">
+        <v>68</v>
+      </c>
+      <c r="U35">
+        <v>12</v>
+      </c>
+      <c r="V35">
+        <v>14</v>
+      </c>
+      <c r="W35">
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>88</v>
+      </c>
+      <c r="Y35">
         <v>22</v>
       </c>
-      <c r="T35">
-        <v>53</v>
-      </c>
-      <c r="U35">
-        <v>13</v>
-      </c>
-      <c r="V35">
-        <v>18</v>
-      </c>
-      <c r="W35">
-        <v>31</v>
-      </c>
-      <c r="X35">
-        <v>73</v>
-      </c>
-      <c r="Y35">
-        <v>13</v>
-      </c>
       <c r="Z35">
-        <v>22.61775497985448</v>
+        <v>27.55630250076729</v>
       </c>
       <c r="AA35">
-        <v>47.57199748929381</v>
+        <v>46.32212001607721</v>
       </c>
       <c r="AB35">
-        <v>20.5666024574071</v>
+        <v>27.80617997398389</v>
       </c>
       <c r="AC35">
-        <v>44.92908493215828</v>
+        <v>56.36248247475118</v>
       </c>
       <c r="AD35">
-        <v>24.36248247475118</v>
+        <v>28.55630250076729</v>
       </c>
       <c r="AE35">
-        <v>92.50108242145208</v>
+        <v>102.6846024908284</v>
       </c>
       <c r="AF35">
-        <v>24.95424250943933</v>
+        <v>18.76581751530992</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4191,97 +4164,97 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C36">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="D36">
-        <v>826</v>
+        <v>952</v>
       </c>
       <c r="E36">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="F36">
-        <v>282</v>
+        <v>388</v>
       </c>
       <c r="G36">
-        <v>620</v>
+        <v>756</v>
       </c>
       <c r="H36">
-        <v>1294</v>
+        <v>1428</v>
       </c>
       <c r="I36">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="J36">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="K36">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L36">
-        <v>2120</v>
+        <v>2380</v>
       </c>
       <c r="M36">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="N36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="S36">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="T36">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="U36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V36">
+        <v>10</v>
+      </c>
+      <c r="W36">
         <v>20</v>
       </c>
-      <c r="W36">
-        <v>32</v>
-      </c>
       <c r="X36">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="Y36">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z36">
-        <v>25.83960372947084</v>
+        <v>17.04372371212676</v>
       </c>
       <c r="AA36">
-        <v>49.02599494516633</v>
+        <v>44.60002621289405</v>
       </c>
       <c r="AB36">
-        <v>21.4416637207988</v>
+        <v>26.51054501020661</v>
       </c>
       <c r="AC36">
-        <v>47.50311619988599</v>
+        <v>53.02109002041323</v>
       </c>
       <c r="AD36">
-        <v>26.06145247908719</v>
+        <v>26.51054501020661</v>
       </c>
       <c r="AE36">
-        <v>96.52911114505233</v>
+        <v>97.62111623330728</v>
       </c>
       <c r="AF36">
-        <v>23.18639121569549</v>
+        <v>27.55630250076729</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4289,97 +4262,97 @@
         <v>66</v>
       </c>
       <c r="B37">
-        <v>420</v>
+        <v>284</v>
       </c>
       <c r="C37">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D37">
-        <v>964</v>
+        <v>884</v>
       </c>
       <c r="E37">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="F37">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="G37">
-        <v>544</v>
+        <v>728</v>
       </c>
       <c r="H37">
-        <v>1488</v>
+        <v>1408</v>
       </c>
       <c r="I37">
-        <v>508</v>
+        <v>340</v>
       </c>
       <c r="J37">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="K37">
-        <v>944</v>
+        <v>680</v>
       </c>
       <c r="L37">
-        <v>2452</v>
+        <v>2292</v>
       </c>
       <c r="M37">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
         <v>21</v>
       </c>
-      <c r="O37">
-        <v>8</v>
-      </c>
-      <c r="P37">
-        <v>37</v>
-      </c>
       <c r="Q37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R37">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S37">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="T37">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="U37">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="V37">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="W37">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="X37">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Y37">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z37">
-        <v>25.36248247475118</v>
+        <v>21.96454246607914</v>
       </c>
       <c r="AA37">
-        <v>50.72496494950235</v>
+        <v>43.92908493215828</v>
       </c>
       <c r="AB37">
-        <v>19.45939248775923</v>
+        <v>26.31132995230379</v>
       </c>
       <c r="AC37">
-        <v>35.21981497118244</v>
+        <v>52.62265990460759</v>
       </c>
       <c r="AD37">
-        <v>15.76042248342321</v>
+        <v>26.31132995230379</v>
       </c>
       <c r="AE37">
-        <v>85.94477992068479</v>
+        <v>96.55174483676586</v>
       </c>
       <c r="AF37">
-        <v>25.36248247475118</v>
+        <v>21.96454246607914</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4387,97 +4360,97 @@
         <v>67</v>
       </c>
       <c r="B38">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="C38">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D38">
-        <v>932</v>
+        <v>860</v>
       </c>
       <c r="E38">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F38">
-        <v>284</v>
+        <v>412</v>
       </c>
       <c r="G38">
-        <v>568</v>
+        <v>728</v>
       </c>
       <c r="H38">
-        <v>1424</v>
+        <v>1320</v>
       </c>
       <c r="I38">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="J38">
-        <v>412</v>
+        <v>296</v>
       </c>
       <c r="K38">
-        <v>856</v>
+        <v>592</v>
       </c>
       <c r="L38">
-        <v>2356</v>
+        <v>2180</v>
       </c>
       <c r="M38">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>17</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
         <v>21</v>
       </c>
-      <c r="O38">
+      <c r="S38">
+        <v>34</v>
+      </c>
+      <c r="T38">
+        <v>56</v>
+      </c>
+      <c r="U38">
         <v>11</v>
       </c>
-      <c r="P38">
-        <v>43</v>
-      </c>
-      <c r="Q38">
+      <c r="V38">
         <v>11</v>
       </c>
-      <c r="R38">
-        <v>13</v>
-      </c>
-      <c r="S38">
-        <v>26</v>
-      </c>
-      <c r="T38">
-        <v>86</v>
-      </c>
-      <c r="U38">
-        <v>31</v>
-      </c>
-      <c r="V38">
-        <v>29</v>
-      </c>
       <c r="W38">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="X38">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="Y38">
         <v>13</v>
       </c>
       <c r="Z38">
-        <v>22.3167249841905</v>
+        <v>21.36248247475118</v>
       </c>
       <c r="AA38">
-        <v>44.633449968381</v>
+        <v>43.32702494083031</v>
       </c>
       <c r="AB38">
-        <v>21.14063372513482</v>
+        <v>27.45939248775923</v>
       </c>
       <c r="AC38">
-        <v>41.52084496684643</v>
+        <v>54.91878497551846</v>
       </c>
       <c r="AD38">
-        <v>20.38021124171161</v>
+        <v>27.45939248775923</v>
       </c>
       <c r="AE38">
-        <v>86.15429493522743</v>
+        <v>98.24580991634878</v>
       </c>
       <c r="AF38">
-        <v>22.3167249841905</v>
+        <v>21.96454246607914</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4583,97 +4556,97 @@
         <v>69</v>
       </c>
       <c r="B40">
+        <v>356</v>
+      </c>
+      <c r="C40">
+        <v>316</v>
+      </c>
+      <c r="D40">
+        <v>988</v>
+      </c>
+      <c r="E40">
+        <v>316</v>
+      </c>
+      <c r="F40">
         <v>300</v>
       </c>
-      <c r="C40">
-        <v>326</v>
-      </c>
-      <c r="D40">
-        <v>952</v>
-      </c>
-      <c r="E40">
-        <v>326</v>
-      </c>
-      <c r="F40">
-        <v>388</v>
-      </c>
       <c r="G40">
-        <v>756</v>
+        <v>668</v>
       </c>
       <c r="H40">
-        <v>1428</v>
+        <v>1472</v>
       </c>
       <c r="I40">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="J40">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="K40">
-        <v>672</v>
+        <v>804</v>
       </c>
       <c r="L40">
-        <v>2380</v>
+        <v>2460</v>
       </c>
       <c r="M40">
         <v>368</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P40">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R40">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S40">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="T40">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="U40">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="V40">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="W40">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="X40">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Y40">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z40">
-        <v>17.04372371212676</v>
+        <v>17.41853992195166</v>
       </c>
       <c r="AA40">
-        <v>44.60002621289405</v>
+        <v>32.79181246047625</v>
       </c>
       <c r="AB40">
-        <v>26.51054501020661</v>
+        <v>21.61775497985448</v>
       </c>
       <c r="AC40">
-        <v>53.02109002041323</v>
+        <v>40.60002621289405</v>
       </c>
       <c r="AD40">
-        <v>26.51054501020661</v>
+        <v>18.98227123303957</v>
       </c>
       <c r="AE40">
-        <v>97.62111623330728</v>
+        <v>73.3918386733703</v>
       </c>
       <c r="AF40">
-        <v>27.55630250076729</v>
+        <v>15.37327253852459</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4681,97 +4654,97 @@
         <v>70</v>
       </c>
       <c r="B41">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="C41">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D41">
-        <v>820</v>
+        <v>932</v>
       </c>
       <c r="E41">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F41">
-        <v>364</v>
+        <v>284</v>
       </c>
       <c r="G41">
-        <v>712</v>
+        <v>568</v>
       </c>
       <c r="H41">
-        <v>1344</v>
+        <v>1424</v>
       </c>
       <c r="I41">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="J41">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="K41">
-        <v>632</v>
+        <v>856</v>
       </c>
       <c r="L41">
-        <v>2164</v>
+        <v>2356</v>
       </c>
       <c r="M41">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="N41">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P41">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R41">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S41">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T41">
+        <v>86</v>
+      </c>
+      <c r="U41">
+        <v>31</v>
+      </c>
+      <c r="V41">
+        <v>29</v>
+      </c>
+      <c r="W41">
         <v>60</v>
       </c>
-      <c r="U41">
-        <v>14</v>
-      </c>
-      <c r="V41">
-        <v>14</v>
-      </c>
-      <c r="W41">
-        <v>28</v>
-      </c>
       <c r="X41">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="Y41">
         <v>13</v>
       </c>
       <c r="Z41">
-        <v>18.5666024574071</v>
+        <v>22.3167249841905</v>
       </c>
       <c r="AA41">
-        <v>39.92908493215828</v>
+        <v>44.633449968381</v>
       </c>
       <c r="AB41">
-        <v>26.06145247908719</v>
+        <v>21.14063372513482</v>
       </c>
       <c r="AC41">
-        <v>52.12290495817439</v>
+        <v>41.52084496684643</v>
       </c>
       <c r="AD41">
-        <v>26.06145247908719</v>
+        <v>20.38021124171161</v>
       </c>
       <c r="AE41">
-        <v>92.05198989033266</v>
+        <v>86.15429493522743</v>
       </c>
       <c r="AF41">
-        <v>21.36248247475118</v>
+        <v>22.3167249841905</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -4782,94 +4755,94 @@
         <v>276</v>
       </c>
       <c r="C42">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D42">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E42">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F42">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="G42">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="H42">
-        <v>1296</v>
+        <v>1172</v>
       </c>
       <c r="I42">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="J42">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K42">
-        <v>704</v>
+        <v>616</v>
       </c>
       <c r="L42">
-        <v>2124</v>
+        <v>1992</v>
       </c>
       <c r="M42">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R42">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="S42">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="T42">
         <v>58</v>
       </c>
       <c r="U42">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="V42">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W42">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X42">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Y42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z42">
-        <v>20.21441993929574</v>
+        <v>15.37327253852459</v>
       </c>
       <c r="AA42">
-        <v>41.48538743292556</v>
+        <v>47.17945251250848</v>
       </c>
       <c r="AB42">
-        <v>26.31132995230379</v>
+        <v>28.85733249643127</v>
       </c>
       <c r="AC42">
-        <v>49.02599494516633</v>
+        <v>56.5666024574071</v>
       </c>
       <c r="AD42">
-        <v>22.71466499286254</v>
+        <v>27.70926996097583</v>
       </c>
       <c r="AE42">
-        <v>90.51138237809189</v>
+        <v>103.7460549699156</v>
       </c>
       <c r="AF42">
-        <v>21.27096749362983</v>
+        <v>31.80617997398389</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -4975,97 +4948,97 @@
         <v>73</v>
       </c>
       <c r="B44">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="C44">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="D44">
-        <v>900</v>
+        <v>964</v>
       </c>
       <c r="E44">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F44">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="G44">
-        <v>662</v>
+        <v>544</v>
       </c>
       <c r="H44">
-        <v>1382</v>
+        <v>1488</v>
       </c>
       <c r="I44">
-        <v>336</v>
+        <v>508</v>
       </c>
       <c r="J44">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="K44">
-        <v>720</v>
+        <v>944</v>
       </c>
       <c r="L44">
-        <v>2282</v>
+        <v>2452</v>
       </c>
       <c r="M44">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="N44">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P44">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Q44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S44">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="T44">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="U44">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="V44">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="W44">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="X44">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="Y44">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z44">
-        <v>23.78845120702346</v>
+        <v>25.36248247475118</v>
       </c>
       <c r="AA44">
-        <v>44.07714746761371</v>
+        <v>50.72496494950235</v>
       </c>
       <c r="AB44">
-        <v>22.51054501020661</v>
+        <v>19.45939248775923</v>
       </c>
       <c r="AC44">
-        <v>47.12290495817439</v>
+        <v>35.21981497118244</v>
       </c>
       <c r="AD44">
-        <v>24.61235994796778</v>
+        <v>15.76042248342321</v>
       </c>
       <c r="AE44">
-        <v>91.2000524257881</v>
+        <v>85.94477992068479</v>
       </c>
       <c r="AF44">
-        <v>20.28869626059026</v>
+        <v>25.36248247475118</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -5073,61 +5046,61 @@
         <v>74</v>
       </c>
       <c r="B45">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C45">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D45">
-        <v>836</v>
+        <v>792</v>
       </c>
       <c r="E45">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F45">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G45">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="H45">
-        <v>1316</v>
+        <v>1236</v>
       </c>
       <c r="I45">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="J45">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="K45">
-        <v>740</v>
+        <v>692</v>
       </c>
       <c r="L45">
-        <v>2152</v>
+        <v>2028</v>
       </c>
       <c r="M45">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="N45">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P45">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S45">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T45">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U45">
         <v>17</v>
@@ -5139,31 +5112,31 @@
         <v>34</v>
       </c>
       <c r="X45">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z45">
-        <v>25.61235994796778</v>
+        <v>24.08948120268744</v>
       </c>
       <c r="AA45">
-        <v>45.03089986991944</v>
+        <v>45.11057122310066</v>
       </c>
       <c r="AB45">
-        <v>23.33445375115093</v>
+        <v>25.76042248342321</v>
       </c>
       <c r="AC45">
-        <v>46.66890750230186</v>
+        <v>51.52084496684643</v>
       </c>
       <c r="AD45">
-        <v>23.33445375115093</v>
+        <v>25.76042248342321</v>
       </c>
       <c r="AE45">
-        <v>91.6998073722213</v>
+        <v>96.63141618994709</v>
       </c>
       <c r="AF45">
-        <v>19.41853992195166</v>
+        <v>21.02109002041323</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -5171,97 +5144,97 @@
         <v>75</v>
       </c>
       <c r="B46">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C46">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="D46">
-        <v>948</v>
+        <v>828</v>
       </c>
       <c r="E46">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="F46">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G46">
-        <v>696</v>
+        <v>592</v>
       </c>
       <c r="H46">
-        <v>1472</v>
+        <v>1296</v>
       </c>
       <c r="I46">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J46">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="K46">
-        <v>776</v>
+        <v>704</v>
       </c>
       <c r="L46">
-        <v>2420</v>
+        <v>2124</v>
       </c>
       <c r="M46">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="N46">
         <v>11</v>
       </c>
       <c r="O46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P46">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R46">
         <v>15</v>
       </c>
       <c r="S46">
+        <v>28</v>
+      </c>
+      <c r="T46">
+        <v>58</v>
+      </c>
+      <c r="U46">
+        <v>19</v>
+      </c>
+      <c r="V46">
+        <v>11</v>
+      </c>
+      <c r="W46">
         <v>30</v>
       </c>
-      <c r="T46">
-        <v>80</v>
-      </c>
-      <c r="U46">
-        <v>25</v>
-      </c>
-      <c r="V46">
-        <v>25</v>
-      </c>
-      <c r="W46">
-        <v>50</v>
-      </c>
       <c r="X46">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="Y46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z46">
-        <v>18.5666024574071</v>
+        <v>20.21441993929574</v>
       </c>
       <c r="AA46">
-        <v>37.1332049148142</v>
+        <v>41.48538743292556</v>
       </c>
       <c r="AB46">
-        <v>23.01569498852652</v>
+        <v>26.31132995230379</v>
       </c>
       <c r="AC46">
-        <v>46.03138997705304</v>
+        <v>49.02599494516633</v>
       </c>
       <c r="AD46">
-        <v>23.01569498852652</v>
+        <v>22.71466499286254</v>
       </c>
       <c r="AE46">
-        <v>83.16459489186724</v>
+        <v>90.51138237809189</v>
       </c>
       <c r="AF46">
-        <v>18.5666024574071</v>
+        <v>21.27096749362983</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -5311,55 +5284,55 @@
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q47" t="s">
         <v>102</v>
       </c>
       <c r="R47" t="s">
+        <v>104</v>
+      </c>
+      <c r="S47" t="s">
+        <v>105</v>
+      </c>
+      <c r="T47" t="s">
         <v>106</v>
       </c>
-      <c r="S47" t="s">
-        <v>108</v>
-      </c>
-      <c r="T47" t="s">
-        <v>110</v>
-      </c>
       <c r="U47" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="V47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W47" t="s">
+        <v>111</v>
+      </c>
+      <c r="X47" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y47" t="s">
         <v>114</v>
       </c>
-      <c r="W47" t="s">
-        <v>116</v>
-      </c>
-      <c r="X47" t="s">
+      <c r="Z47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB47" t="s">
         <v>118</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="AC47" t="s">
         <v>120</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AD47" t="s">
         <v>122</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AE47" t="s">
         <v>124</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AF47" t="s">
         <v>126</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -5406,58 +5379,58 @@
         <v>101</v>
       </c>
       <c r="O48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S48" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="T48" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="U48" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="V48" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W48" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="X48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB48" t="s">
         <v>119</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="AC48" t="s">
         <v>121</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AD48" t="s">
         <v>123</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AE48" t="s">
         <v>125</v>
       </c>
-      <c r="AB48" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>133</v>
-      </c>
       <c r="AF48" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
